--- a/data/hotels_by_city/Dallas/Dallas_shard_108.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_108.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="597">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>GlendaMcM_2013</t>
+  </si>
+  <si>
     <t>06/06/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>I expected a really clean and updated stay since it was Comfort Suites.  However, we were all in agreement that it was at the lower scale of other Comfort Suites we have stayed at.  The bathroom and the bathroom trip made us all say, "oh".  :)More</t>
   </si>
   <si>
+    <t>rogersangel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r575301969-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>Our family was transferred to this hotel after being lied to by another Comfort Suites that they had a working pool.  After staying one night at a sister hotel in Gainsville we were sent a hour away to stay at one in Plano.  The hotel was older and musty smelling. And the room was a little dated.  But the worst part was taking our kids down to the pool and hot tub that smelled so terrible like dead fish and dirty socks.  All the kids swimming in the pool kept yelling out that it stunk so bad.  There was no sign of chlorine and the water was a greenish color.  After going back and forth with this company they eventually offered a free nights stay in the same dirty hotel we were transferred to.  Oh, and we live 5 hours away.  I would never recommend this hotel to anyone.  And we had mold in our shower.More</t>
   </si>
   <si>
+    <t>Awgie G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r547231881-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>Had to book this short notice and the price was very good considering. The hotel was very busy as there was a youth soccer tournament in town but the room was surprisingly quiet.  Breakfast comes with the room, however with all the families and kids, I wasn't able to partake. The staff was very accommodating.  I checked in with my brother and his wife and they gave us adjacent rooms and considering how late we booked, I was somewhat impressed. The climate controls are 100% in the guests control, which is a big plus since I like a colder room.  The room was big and clean with a mini fridge and microwave.  They still use the mini drip coffee makers and not the Kuerigs so plan accordingly. Overall, very nice stay.More</t>
   </si>
   <si>
+    <t>Janis W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r545611653-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>Very comfortable lodging; good breakfast, friendly staff, clean room, everything operational. Suite had two queens plus a full size pull-out sofa. Traveling with two teenagers. Overall positive experience. More</t>
   </si>
   <si>
+    <t>DuffyNC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r530046201-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>The Suites are conveniently located just off the highway and across the street from Top Golf. Despite the location, it was very quiet. The room was large and very clean. We were there for four days and never experienced a problem. The breakfasts are the usual fair you would expect. There are many restaurants nearby including an In n Out Burger. This is a great place to stay if you have business in the Metroplex. More</t>
   </si>
   <si>
+    <t>rfarris19</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r525643295-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -321,6 +339,9 @@
     <t>Very cheap, one of the cheapest in the entire town of plano, how can you possibly go wrong with this. and this hotel offers free breakfast every morning.and its a huge continental breakfast at that. Check it out.More</t>
   </si>
   <si>
+    <t>chappygma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r507456815-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -348,6 +369,9 @@
     <t>I went on the high reviews on this hotel but they weren't close.  The air was musty smelling when I walked and that was first impression that was the right on.  The paint is peeling through out the room.  The tub facet was loose, hot tub cold.  The bed was ok.  For what we read was opposite of the reality.  I normally have had gr8 stays at Comfort Suites but this one is not the same quality.  This one needs some care.  More</t>
   </si>
   <si>
+    <t>bboylord</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r481815680-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
     <t>The hotel has a good location, the rooms are of a very good size, the staff is friendly and always on hand to help you. The breakfast is super limited in options. This hotel is for sleeping only not to enjoy its attractions.More</t>
   </si>
   <si>
+    <t>2013TheSwede</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r456075884-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -402,6 +429,9 @@
     <t>First time here and probably not last.Easy and positive checking.  Plenty of parking and offer hot breakfast.Only downside and dissapointment so far is that the reception not had a corkscrew for the wine bottle More</t>
   </si>
   <si>
+    <t>leighanneb_12812</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r453803068-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -426,6 +456,9 @@
     <t>We were impressed with the hotel. Room was nice and pool/hot tub area was great. Breakfast was a little blah. Wish they would have had some salsa or something g to flavor the eggs but everything else was great. Front desk staff was super friendly and helpful. More</t>
   </si>
   <si>
+    <t>JOHN K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r450530325-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -450,6 +483,9 @@
     <t>The room was clean, the service at the desk was good.  The pool was very nice.  The hotel in a decent location. My only issue is around 5:30 to 6:00 a.m. we started hearing loud banging which I have to assume were other guests leaving their rooms and slamming the doors. Oh well we almost had a good nights sleep.More</t>
   </si>
   <si>
+    <t>David S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r439758208-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -477,6 +513,9 @@
     <t>Nice hotel in a decent location.  Clean rooms and public spaces.  Very comfortable bed and nice, bright decor.  Plenty of parking available.My only issue was the customer service staff; friendly, but a little odd.More</t>
   </si>
   <si>
+    <t>Safiyakhan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r420346873-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -504,6 +543,9 @@
     <t>Just checked in they let us check in a couple hours early. Was easy to find just off of the freeway. Close and free parking. Lobby was attractive and clean, check in was smooth. Staff polite. Our room was good sized and clean and attractive. It has microwave and fridge, 2 queen beds and a sofa sleeper. They said breakfast is 6-9:30. Coffee available 24hr in lobby. There is a big snack vending store behind the front desk. Small indoor pool and hot tub and exercise gym. So far so good. Ask about early check out and was told price would like increase per night if we checked out early. We booked 5 nights at $99 per night. Beware over two persons per room there is a extra fee of $20 per night. Not included in original price quote. Deceptive. Better just charge $20 more upfront. So if you are a family like us it's $20 extra charge. For this reason I give it 3 stars. That and increase of price if you check out early. More</t>
   </si>
   <si>
+    <t>buddy s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r416615520-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -528,6 +570,9 @@
     <t>Have stayed at many Comfort Suites. This one is pretty similar. Always clean, consistent and comfortable. Good pillows! The gentleman at the front desk was very friendly and accommodated me immediately. Looks like it's going to be another nice stay. More</t>
   </si>
   <si>
+    <t>Rooster C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r380405578-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -555,6 +600,9 @@
     <t>I've got to say... I'm a Choice Rewards Platinum member. But due to recent stays at various Comfort Inns and Suites, I'm quite disappointed in their decline. The motel was ok, but the breakfast was a vain attempt at a half-effort. This was not one of the nicer motels I've stayed at. It is in serious need of updates. The housekeeper failed to knock prior to entering our room. I'm just glad we were all dressed. She never apologized, and seemed put out that we asked her to wait a few minutes until we left. More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r333744292-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -582,6 +630,9 @@
     <t>Very clean room with New furniture. WIFi worked fast and was free. Very friendly and helpful staff. We had trouble with our toilet and it was fixed right away. Great hotel overall. Close parking. Good breakfast. No complaints. We Will stay here many more times. More</t>
   </si>
   <si>
+    <t>Lhutch72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r322196349-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -600,6 +651,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Cabbersham</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r314174134-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -627,6 +681,9 @@
     <t>I was very pleased with my stay at the Comfort Suites in Plano, Texas.  The hotel is very clean, updated, well maintained, and comfortable.  The staff is extremely friendly and helpful.  I received a great rate for a quality stay in some of the cleanest rooms I've seen.  I was only supposed to be in Plano for 2 days, but my business was unexpectedly extended to 6 days.  The staff went out of their way to accommodate me for the additional 4 days, and make my stay very comfortable.  I would absolutely stay here again on my next visit to Plano.More</t>
   </si>
   <si>
+    <t>Tiffany D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r310191248-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -654,6 +711,9 @@
     <t>We stayed here for vacation. Our room was very nice and the staff was very nice. The manger was great, I had a issue with something so I left a message for him to contact me about it, and he got right back with me. After speaking with him the issue was fixed.More</t>
   </si>
   <si>
+    <t>Javier R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r303702580-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -681,6 +741,9 @@
     <t>The hotel itself is physically appealing and clean. Most of the staff is friendly and the location is convenient. However, the issues came when I had to check out a day earlier than originally booked. At checkout, I was provided a receipt charging me only for the 3 nights I actually stayed for. I was very pleased with the removal of the cost for the projected night since I was not going to be staying there that night. However, a month later, I received a notification confirming that my credit card was charged for the full amount (4 nights). I called the hotel and inquired as to why I was charged for an amount differing from the receipt I was provided. I was transferred to their floor manager and he agreed to remove half of the daily charge. However, by this time, my business expense report was already completed and I ended up having to pay for the extra fees myself. My issue here isn't paying for the extra night. I would have, without complaints, paid for this night since that was what I originally booked. My problem is with the treatment I was given when I called the hotel to complain. The manager I talked to was very rude, even though it was verified that the receipt I was given did not include the fees I was charged for. The reduction provided was given to me as if I...The hotel itself is physically appealing and clean. Most of the staff is friendly and the location is convenient. However, the issues came when I had to check out a day earlier than originally booked. At checkout, I was provided a receipt charging me only for the 3 nights I actually stayed for. I was very pleased with the removal of the cost for the projected night since I was not going to be staying there that night. However, a month later, I received a notification confirming that my credit card was charged for the full amount (4 nights). I called the hotel and inquired as to why I was charged for an amount differing from the receipt I was provided. I was transferred to their floor manager and he agreed to remove half of the daily charge. However, by this time, my business expense report was already completed and I ended up having to pay for the extra fees myself. My issue here isn't paying for the extra night. I would have, without complaints, paid for this night since that was what I originally booked. My problem is with the treatment I was given when I called the hotel to complain. The manager I talked to was very rude, even though it was verified that the receipt I was given did not include the fees I was charged for. The reduction provided was given to me as if I was begging for money and not as compensation for their staff making a mistake. I will not be staying here again and I would caution others to scrutinize their receipts and make sure no other fees will apply after checkout. This seems like a very irresponsible business practice and I believe their staff should be better trained to understand policy and deal with complaints.More</t>
   </si>
   <si>
+    <t>texasshopr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r279150793-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -690,6 +753,9 @@
     <t>June 9, 2015</t>
   </si>
   <si>
+    <t>JajaLalaMimiEE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r277373690-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -699,6 +765,9 @@
     <t>June 2, 2015</t>
   </si>
   <si>
+    <t>RRT10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r273193581-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -723,6 +792,9 @@
     <t>Hidden gem! Wonderful hotel very nice and quite hotel.Melvin, Greg, Jordan, Rick and Disha everyone is very attentive and provides excellent customer service. The manager Jordan is very calm and polite and I think customer service is what he breathes! Everyone in the hotel is very  kind and polite and willing to assist. Quite Rooms, New room feeling, Great Swimming Pool. Great Breakfast and Excellent Clean Bathrooms. Great Job! Thank you for all the excellent customer service.Just asked for the nearest mall and they were helpful to print directions and also to show the way in details. Great polite customer care Great Hotel. WIFI speed was excellent. Great Coffee and Juice machines all day!More</t>
   </si>
   <si>
+    <t>Kelery</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r272800526-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -747,6 +819,9 @@
     <t>My husband and I stayed at this hotel this past weekend.  When we checked in, we thought the hotel was really nice.  On our first night there (about 11pm) the fire alarm started beeping in our room.  My husband called the front desk and explained to the clerk that the alarm battery needed to be changed.  She said that they didn't have a maintenance person on staff and didn't really know what she should do.  My husband said that she needed to decide because we couldn't stay in the room.  He went down to the front desk and the clerk had the manager on the phone.  He asked my husband if he knew what needed to be done to change the battery and husband said yes so the manager replied "OK, I'm about 30 minutes away, I'll bring you a ladder &amp; battery and you can change the battery.". For obvious reasons, my husband declined to do that.  The manager then apologized and said that he would comp the room for our inconvenience and moved us to another room.  When we checked out yesterday, the night had not been comped, only was given a $30 discount.  We called the corporate office today and they said that there wasn't anything they could do. What amuses me the most is they have signs everywhere that states " our satisfaction is their priority".  Clearly... That isn't the case....More</t>
   </si>
   <si>
+    <t>Alonso S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r270174785-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -774,6 +849,9 @@
     <t>I booked this room for a business trip a Whole week. The price was so reasonable. I was not disappointed. Rooms were great. Service was outstanding! Staff was friendly and very accommodating, I loved the breakfast, the self-serving waffle machine. Without a doubt I'd recommend it. The room had Microwave, Coffee Maker, refrigerator, big screen, comfortable business chair. I was happy there.Great Guys, Disha, Jordan and Melvin.More</t>
   </si>
   <si>
+    <t>George29841</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r245571388-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -792,6 +870,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>BransonMusicUSA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r244341097-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -807,6 +888,9 @@
     <t xml:space="preserve">We took our group to Texas for an engagement and we loved staying here.  From the staff to the hotel everything was first class. JR and the whole Staff was very friendly, professional and accomodating.  We have stayed at many hotels over the years and the experience  we had here was unmatched.  Rooms were clean and very nice.  It all really worked out well for all our group.  We will be back again and would highly recommend this hotel. </t>
   </si>
   <si>
+    <t>Grampa1951</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r242563359-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -825,6 +909,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>MelindaS373</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r242453345-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -837,6 +924,9 @@
     <t xml:space="preserve">I booked this room for a business trip.  I wasn't sure what I would get because the price was so reasonable.  I thought I would take a chance.  I was not disappointed.  Rooms were great.  Service was outstanding!  Staff was friendly and very accommodating.  </t>
   </si>
   <si>
+    <t>htwh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r241094453-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -861,6 +951,9 @@
     <t>This hotel is right next to a couple of others, one of which allows pets (and their comments reflect it), and the other which is twice as much. The Comfort has an indoor pool and jacuzzi, the bed is comfy, but there could have been a better layout so that one could watch TV or use a laptop without waking up someone on the pullout couch, which itself was not so comfy. Breakfast was great, and there were Texas-shaped waffles! Parking is a little tight. Desk people all very friendly. Gave it a 5 due to rounding.More</t>
   </si>
   <si>
+    <t>byrusber</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r240734134-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -879,6 +972,9 @@
     <t>I stayed at this hotel 6 nights for business purpose. It is very close to Cisco Systems Plano (Richardson) office (5 mins by walking). The room and bathroom were quite big and clean. Bed was huge and comfortable. Room has iron and ironing table, it was useful.Front desk staff was very polite.Air condition was a little noisy when its turned on. Breakfast was so so, not much choices.There are several restaurants for food around hotel (5 to 10 mins by walking).As a summary it was nice hotel to stay. If i go to the Plano again, i will stay at this hotel again.More</t>
   </si>
   <si>
+    <t>sunni014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r236120475-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -900,6 +996,9 @@
     <t>Stayed overnight at this hotel because my grandson had a doctor's visit in Plano. Arrived early and the attendant was very helpful and polite. He helped us with directions to the facility we were going early the next morning. The breakfast area was well maintained and offered a varied selection of items. Our room was clean and the only negatives were a minor drip in the bathtub and the AC was a little loud. However, we did enjoy our stay and will be back in February for another doctor's visit and will stay at this location again.More</t>
   </si>
   <si>
+    <t>Cheryl B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r234307800-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -924,6 +1023,9 @@
     <t>We arrived in the early evening and was given very good directions to a nearby deli as my husband was not feeling well and we were going to eat light in the room.  Apparently he got to feeling worse during the night and in the early morning awoke me to tell me he needed to go to an emergency room.  I quickly dressed and went to the front desk for assistance.  Jordan quickly got on the computer for directions to the nearest hospital emergency room while I grabbed a quick breakfast for myself.  There were offers to help get me packed up in case he was hospitalized but I declined as we had only bought in a few items.  As one can read the front desk staff is very knowledgeable and helpful.  I would definitely return to stay there but do want a longer stay at this lovely place.More</t>
   </si>
   <si>
+    <t>Mike C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r233933387-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -942,6 +1044,9 @@
     <t>I just returned from a quick business trip to Plano and stayed at the Comfort Suites Hotel.The hotel is located just off the Bush Freeway.  Our check-in was quick and pleasant.  The associate working the front desk very extremely nice and welcoming.  The hotel is very well maintained.  In fact, we thought the hotel was brand new because it was so clean and actually smelled like a new building.  But, we were told the hotel is around 5 years old.Walking to my room I really noticed how clean the hallways were and just couldn't believe the place hadn't just opened.  The rooms are very spacious and the beds were amazing.  Very comfortable and plush.The only complaint was the free breakfast in the morning.  It wasn't bad, just comparable to most free hotel breakfasts.  Just cereal, sausage, and egg patties.There are restaurants around the area.  I would recommend Apollonia's Italian Kitchen just on the other side of the freeway.  Great food and service!Overall we were pleased with our stay and would definitely consider staying here again.More</t>
   </si>
   <si>
+    <t>Dlwalton81</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r231535876-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -966,6 +1071,9 @@
     <t>I stayed at this hotel this past weekend for the Razorback vs. Texas A&amp;M game. Excellent hotel. Nice friendly staff throughout the day. Staff are knowledgeable of the area. Hotel is neat and clean. I would definitely stay again. Hotel is in good location of shopping, eating, etc. There was no concern of safety, parking lot well lit and open. More</t>
   </si>
   <si>
+    <t>filmbuffintexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r221605647-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -993,6 +1101,9 @@
     <t>It is not as easy as you would think to find a nice and affordable hotel in the Dallas area since there are so many, many choices. We checked www.tripadvisor.com before we booked and were delighted to find that there was a Comfort Suites hotel in Plano, Texas.  And, yes, all the other tripadvisor reviews are correct in that this is a nice, clean place for the traveler to stay.  Another plus for the traveler to Dallas is that it is located near the intersection of US 75 and President George Bush Turnpike so you can check out and be on your way in minutes. Finally, I  just want to mention the great staff at the front desk.  They are more than happy to  help you with travel directions, etc.More</t>
   </si>
   <si>
+    <t>Niki H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r221571825-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1017,6 +1128,9 @@
     <t>This was a great stay as always at Comfort Suites!  The desk staff was really nice and welcoming on arrival.  The room was fresh and clean.  Only negative...at 9:30am breakfast is over !!!  The lady cleaning up was on a schedule and she means business!  She stopped us mid cooking of our Texas shaped waffle and said breakfast was over and she needed to clean up!!  Was kinda funny but not so funny when 2 of us had to share 1 waffle.More</t>
   </si>
   <si>
+    <t>Tom-Brenda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r211872384-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1044,6 +1158,9 @@
     <t>We were very happy with the clean rooms and everyone was very polite, we were hoping to stay close to the George Bush museum but this was farther than we expected.  We slept well and the breakfast was good.  Another good experience at a Comfort Suites.  Although don't expect much of the gym the equipment was not all in working order.  They had a nice indoor pool but we didn't use it.More</t>
   </si>
   <si>
+    <t>Challis B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r194793381-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1071,6 +1188,9 @@
     <t>Relatively new Comfort Suites.  Good value for the price.  Room was nice with a comfortable king size bed.  Good breakfast in the morning.  Good location near the insersection of US 75 and President George Bush Turnpike.More</t>
   </si>
   <si>
+    <t>HBTulsa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r191645892-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1092,6 +1212,9 @@
     <t>My family and I spent two nights there. We rented a room for five and have to say in was very comfortable, good beds, and pillows.  The indoor pool (small but nice)  is a big attraction considering it is winter and  not all hotels nearby have indoor pools. This was a main plus for us.  The main advantage of this hotel is location, you can reach easily local museums, big malls and stay  close to highway 75. On the flip side  the TV channels option just OK.  The room needed a TLC and the breakfast  buffet was kind of poor. The staff was very friendly and that helps a lot.If you are planning a family trip to Dallas on tight budget and just stay to be away of north Dallas, this hotel "fits for the purpose"More</t>
   </si>
   <si>
+    <t>Jim S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r187489979-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1119,6 +1242,9 @@
     <t>What a pleasant place to stay.We made reservations at the Comfort Suites, and used our GPS to find it.It is off of U.S. 75, but not far.Friendly greeting by the desk clerk and keys in hand, headed for our room.What a pleasant room.Nicely decorated, as all Comfort Suites are, and plenty of amenities.The room was large, with a comfotable sleeper sofa to sit on and watch television or read.The Internet connection was good, and fast.We slept well, as the room had a very comfortable King bed and was very, very quiet.There are plenty of places to eat in the area, but might be a bit far to walk to most.Some can be walked to, but across busy streets.A definite YES, when asked if we would stay in this Comfort Suites again.More</t>
   </si>
   <si>
+    <t>onlymeinArkansas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r178505466-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1143,6 +1269,9 @@
     <t>Stayed here several times and I am always pleased to give them my business. Good breakfast in the morning. Staff are polite and helpful. I have even stayed here and put up with a 40 minute drive to downtown Dallas, rather than book into a downtown hotel.More</t>
   </si>
   <si>
+    <t>Garry H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r173732608-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1173,6 +1302,9 @@
     <t>As are most Comfort Suites, this place was a great value for the price. Hotel appears fairly new and well maintained. Room was nice and bed was very comfortable. Everything in the room actually worked, which isn't all ways true at some places. Ashley at the front desk was a great help on where to eat. Thanks Ashley! Breakfast was good and well stocked, which isn't all ways true in some places. This is a Comfort Suites that I will go back to.More</t>
   </si>
   <si>
+    <t>Jerry A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r173389264-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1194,6 +1326,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>DeanoRubino</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r172982197-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1212,6 +1347,9 @@
     <t>Basic needs are met in a clean and safe setting.  While location next to freeway enables easy on and easy off; it also generates more noise that can be problematic based on room location.  Amenities are nice.  Room was large for the chain as it included a separate sitting area.  Breakfast is classic Comfort Suites...nothing special; not bad either.  Essentially a kick start for the day.More</t>
   </si>
   <si>
+    <t>LipseyJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r172736240-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1260,6 +1398,9 @@
     <t>Working around the Dallas area for a few months we have moved between various hotels. We are so impressed with this hotel that we are staying long term and putting up with the extra commute every day.More</t>
   </si>
   <si>
+    <t>MSMOOT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r171361956-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1281,6 +1422,9 @@
     <t>Loved the rooms and convenience to restaurants. Clean and extra comfy beds here. As a business traveler this meets the needs and the price is very reasonable. Breakfast was homemade sausage gravy and biscuits one morning, not out of a can!More</t>
   </si>
   <si>
+    <t>darac77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r168473502-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1297,6 +1441,9 @@
   </si>
   <si>
     <t>Clean rooms, good service. Nice indoor pool and hot tub... Full hot breakfast. Must stay if you are in the plano Richardson area. Also you will not go wrong since there are done nice restaurants across the highway.More</t>
+  </si>
+  <si>
+    <t>linda g</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r166115938-Comfort_Suites_Plano-Plano_Texas.html</t>
@@ -1328,6 +1475,9 @@
 We slept thru breakfast due to our late arrival, so no comment there.  We tried out the pool.  It is a small indoor pool...This was a last minute attempt to get out of the house locally.  It was very late, and had tried several other local hotels.  All prices were too much $$ considering the room stay would be less than 10 hours.  Did a quick drive-by this locale, as had never stayed there.  Greeted by a nice gentleman at the front desk.  They had a room meeting my request, for a reasonable cost.Our priority was a bed and some sleep.  The beds were heavenly.  They were comfortable and dreamy.  The pillows were excellent, a variety to choose from.  The sheets were soft and heavenly as well.  Even if everything else has gone bad, the bed would of been worth the stay!  My only initial complaint was there was no ice machine on the floor we were on.  I guess these days, for a 4 story hotel, they only put ice machines on 2 of the 4 floors.  Aggravating when you just want to run down the hall quick to grab ice, but instead have to go to another floor.This is a fairly new hotel, so was surprised at the level of noise in the hall floors, creeking, squeaking.  Had no affect on our ability to sleep though, so no biggie.  Floor must be wood vs concrete.We slept thru breakfast due to our late arrival, so no comment there.  We tried out the pool.  It is a small indoor pool with hot tub.  The pool water was too cold for swimming.  The hot tub was ok, but not very hot.Ran by the front desk upon checkout, just to make sure all ok.  The desk clerk indicated the internet was down, so they could not print receipts or anything.  Seems they should have a backup way to check folks out.More</t>
   </si>
   <si>
+    <t>dietrichmd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r164448582-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1360,6 +1510,9 @@
 Fast forward a few hours and we are done with...TL;DR: Room: A-, Facilities: A-, Service: B- In town for a business trip for a few days, I booked a room at this hotel because the Homewood Suites across the street was full. I had booked the room for Monday and Tuesday night and made sure that I put that we would be arriving late Monday. Unfortunately, late Monday turned into early Tuesday and we didn't get in until around 4am. After burning the midnight oil, we arrived to find out that they had cancelled our reservation because we hadn't shown up before midnight. While I understand the need to run audits and close out any rooms that aren't claimed, at the very least, they could have called and asked if we were indeed on the way. After a brief conversation with the night clerk, we were told that they had one room available for that night only and that they wouldn't be able to honor our original reservation. We said sure and decided to find a new place after we woke up. Fast forward 4 hours and we start heading out to our meeting and to check out. While checking out, the morning clerk asked if we were checking out early and wanted to give up our room. Of course, we said no and were told we could keep our room. All is well, right? Well, not so much. Fast forward a few hours and we are done with our meeting and returned to the hotel. Settling down, our group splits up with my co-worker going over to see a friend at Homewood. A few minutes later, I find myself with water rapidly rising from the toilet (i only used 3 pieces of paper!!!) so I call the front desk to ask maintenance to come up and take care of it. I was told to come down and get a plunger and that he/they wouldn't assist. Now, I'm not asking for them to come up and plunge a nasty toilet, but they could have at least sent someone up with the plunger. After picking up the plunger, I ask "should I just leave it in the room for housekeeping?" to which the clerk replied "no, just bring it back down here". Again, not a major inconvenience, but when you pay for service, you should get service -- even if its just someone dropping off a plunger. As for the room itself, the beds were comfortable, the AC worked well and the unit was clean. My ONLY complaint about the room was the weak water pressure in the shower. The wifi was slow, but at least it was stable -- not fast enough for netflix however...so if you don't want to watch their TV, it may be a good idea to load your device with a few videos before you head this way.More</t>
   </si>
   <si>
+    <t>pkeafer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r157141807-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1378,6 +1531,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>AggieAbroad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r155365160-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1396,6 +1552,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>cricket64_13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r155351118-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1411,6 +1570,9 @@
     <t>We stayed for 5 nights.  Room was clean and spacious.  Housekeeping was good.  Had everything we needed.  We had a great stay until the last night.  2 tour buses full of young adults came in.  They all must have been booked on our floor.  It was a nightmare.  Some was hollering  and beating on doors.  Loud partying all night.  As senior citizens, I was horrified.  Called the front desk and desk clerk said he would check it out, but noise never let up.  With no sleep, we left at 3:30 am to start home  to Georgia. As walking by the front desk, no desk clerk to be found.  Because of this, we'll never go back to this particular hotel.More</t>
   </si>
   <si>
+    <t>Maidenfan84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r151136938-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1435,6 +1597,9 @@
     <t>I stayed here while in Texas for a couple concerts in June 2010. Staff was extremely friendly. Rooms were clean and new looking. Loved the breakfast. Would definitely stay again! Location was right off the freeway. Plenty of parking. Close to grocery gas and resteraunts.More</t>
   </si>
   <si>
+    <t>timbottu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r135180538-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1462,6 +1627,9 @@
     <t>The hotel staff were friendly and check in was pretty quick.  It seemed like every time I went through the lobby the desk person was outside smoking, but I didn't have to wait long for them when I needed something.  There is only one elevator on the property and it was extremely slow.  The room was clean and maintained a comfortable temperature.  The bed / pillow were comfortable.  There were some of the channels on the cable that were not working properly, but I didn't get to spend very much time in the room anyway, so in my case it was not that big of an issue.  I typically get a 2:00 check out when needed due to being a choice privileges member, but the man at the desk said they were understaffed so it would have to be 1:00.  Breakfast was ok.  The area seemed safe.  I would stay here again.More</t>
   </si>
   <si>
+    <t>mfschro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r126077486-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1477,6 +1645,9 @@
     <t xml:space="preserve">We enjoyed our stay here. The rooms were nice and clean. The only gripe I had was the gap on the floor as you got on the elevator. It would be really easy to trip and fall. I would definitely stay there again. </t>
   </si>
   <si>
+    <t>blshears</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r120791429-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1516,6 +1687,9 @@
     <t>We chose this hotel based on reviews and cost and were not disappointed.  I cannot say enough nice things about the staff.  We were greated everytime we entered the hotel.  Every request was taken care of immediately and courteously.  I needed a 24 hour pharmacy and the desk clerk went above and beyond to help me find one and give me directions.  The entire hotel was very clean and well maintained.  I cannot comment on the breakfast because we slept in and missed it every day we were there.  The room had everything we could have possibly needed.  The only possible downfall would be the size of the swimming pool.  It is the smallest I have ever seen but not a big deal unless it's important to you.  The elevator is slower than most but it worked.  We will stay there again and I would recommend it to a friend.More</t>
   </si>
   <si>
+    <t>KsAdv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r119509266-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1531,6 +1705,9 @@
     <t>We chose the Plano, Addison, McKinney area for our annal sister's weekend. Plano gave us a central location for the activities. Our stay was pleasant and relatively quiet, despite it being the OU vs.TX football weekend. The rooms were clean, comfortable and roomy. The free breakfast was good and had more seating than most hotels we've stayed. The WiFi connection in our room was very-very slow.</t>
   </si>
   <si>
+    <t>foodluvr21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r116987890-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1558,6 +1735,9 @@
     <t>We stayed here 4 nights, and the hospitality was incredible.  I became convinced Joel had a twin brother, as I didn't see how anyone could work the desk all night then tend the breakfast bar the next morning, day after day, and always remain incredibly helpful and cheerful!  The (free) breakfast menu varied from day to day, but was always excellent.  The main entrees featured selections such as ham, bacon, biscuits and gravy, cheese omelets, and scrambled eggs, and there were always waffles to be made (regular or cinnamon), fruit, pastries, and yogurt.Our room was large, clean and pretty comfortable.  The A/C was a bit noisy and breezy, but tolerable.  It did a good job of maintaining temperature.  We did find ourselves wishing we had brought our own pillows, as the pillows provided weren't as soft and thin as we prefer.The exercise room was simply equipped and I couldn't get the lone treadmill to work, but the bike (quite nice) and the simple weight machine sufficed for my short workouts.  (I was the only person I ever saw in the room!)Access off the George Bush Turnpike was convenient, and the location felt safe.More</t>
   </si>
   <si>
+    <t>travkisser</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r101578112-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1579,6 +1759,9 @@
     <t>We went with my husband on a business trip and stayed here. We are almost never able to get away as a family, so we have to make his business trips into somewhat of a vacation. The only thing we really wanted in a hotel was an indoor pool so we could all swim together. We spent more on this hotel because the website says it has an indoor pool. However, when we got there we saw that the pool was closed for maintenance and apparently won't be open for a while. The manager was kind enough to refund me the price difference of $40 between this hotel and the other one we were deciding on. The beds are quite firm, but the rooms are extremely clean and pretty roomy. The coke machine took my money but wouldn't dispense a drink and when I informed the clerk, she said she would tell the manager but never offered to reimburse me. Lastly, I wish there were restaraunts within walking distance or at least on the same road. Only fast food is in the immediate area, but BJ's will cater to your room. The breakfast is pretty good (waffles, yogurt, cereal, pastries, eggs, ham, etc.). I would definitely stay here again, but the pool would have to be open for me to pay the room rate.More</t>
   </si>
   <si>
+    <t>MrPaprClip</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r89197770-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1597,6 +1780,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>BethelInsdr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r71068517-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1616,6 +1802,9 @@
   </si>
   <si>
     <t>I travel probably 100-125 days a year and I typically stay with other chain hotels - however this place was so nice that I felt compelled to write a review. (I have never done this before  First of all - is this a 5 star hotel (Ritz, etc) no - but no one is suggesting it is a luxury place - but at the price I paid per night this place is perfect.  The hotel is very nicely decorated and maintained.  It is clear that they spent some money in building the facility.  The people were very nice....bedding very comfortable........extremely clean.......and at $$  a night by far the best deal around.  I had stayed clear of some of the Comfort Inn's in the past year as many of them are dated, run down motels, essentially.  This deserves the gold star/medal it has received as it really reflects some true pride in ownership.    I would absolutely stay here again -More</t>
+  </si>
+  <si>
+    <t>roseoliver</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r55781061-Comfort_Suites_Plano-Plano_Texas.html</t>
@@ -2138,34 +2327,38 @@
       <c r="A2" t="n">
         <v>57513</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>125743</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
@@ -2182,56 +2375,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57513</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>125744</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2247,56 +2444,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57513</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>125745</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -2314,56 +2515,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57513</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2375,56 +2580,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57513</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>125746</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2436,47 +2645,51 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57513</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>125747</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
@@ -2493,56 +2706,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57513</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>125748</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2554,56 +2771,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57513</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>125749</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2615,56 +2836,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57513</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>125750</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2676,56 +2901,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="X10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="Y10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57513</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>125751</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2737,56 +2966,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57513</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>125752</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2802,56 +3035,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57513</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>1826</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2869,56 +3106,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57513</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>125753</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2930,56 +3171,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="X14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57513</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>125754</v>
+      </c>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="J15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="K15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="O15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2991,56 +3236,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="X15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="Y15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57513</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>125755</v>
+      </c>
+      <c r="C16" t="s">
+        <v>184</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="J16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="O16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3052,56 +3301,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="X16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="Y16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57513</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>194</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="K17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3113,56 +3366,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="X17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="Y17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57513</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>125756</v>
+      </c>
+      <c r="C18" t="s">
+        <v>204</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="J18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="K18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="L18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="O18" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3176,50 +3433,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57513</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>125757</v>
+      </c>
+      <c r="C19" t="s">
+        <v>211</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="J19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="K19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="O19" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3231,56 +3492,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="X19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="Y19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57513</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>34574</v>
+      </c>
+      <c r="C20" t="s">
+        <v>221</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="J20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="K20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="O20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3292,56 +3557,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="X20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="Y20" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57513</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>57463</v>
+      </c>
+      <c r="C21" t="s">
+        <v>231</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="J21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="K21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="L21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="O21" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3359,41 +3628,45 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="X21" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="Y21" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57513</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>125758</v>
+      </c>
+      <c r="C22" t="s">
+        <v>241</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="J22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s"/>
@@ -3409,36 +3682,37 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57513</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>125759</v>
+      </c>
+      <c r="C23" t="s">
+        <v>245</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="J23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
@@ -3454,51 +3728,52 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57513</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>125760</v>
+      </c>
+      <c r="C24" t="s">
+        <v>249</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="J24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="K24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="L24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="O24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3514,56 +3789,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="X24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="Y24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57513</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>125761</v>
+      </c>
+      <c r="C25" t="s">
+        <v>258</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="J25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="K25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="L25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="O25" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3575,56 +3854,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="X25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="Y25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>57513</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>125762</v>
+      </c>
+      <c r="C26" t="s">
+        <v>267</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="J26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="K26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="L26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="O26" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3642,56 +3925,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="X26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Y26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57513</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>125763</v>
+      </c>
+      <c r="C27" t="s">
+        <v>277</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="J27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="K27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="L27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3711,41 +3998,45 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57513</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>125764</v>
+      </c>
+      <c r="C28" t="s">
+        <v>284</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="J28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="K28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="L28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
@@ -3774,50 +4065,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>57513</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>125765</v>
+      </c>
+      <c r="C29" t="s">
+        <v>290</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="J29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="K29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="L29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="O29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P29" t="n">
         <v>2</v>
@@ -3837,41 +4132,45 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>57513</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>125766</v>
+      </c>
+      <c r="C30" t="s">
+        <v>297</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="J30" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="K30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="L30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
@@ -3900,50 +4199,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>57513</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>125767</v>
+      </c>
+      <c r="C31" t="s">
+        <v>302</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="J31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="K31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="L31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3961,56 +4264,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="X31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="Y31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>57513</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>125768</v>
+      </c>
+      <c r="C32" t="s">
+        <v>311</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="J32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="K32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="L32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="O32" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4026,56 +4333,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="X32" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="Y32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>57513</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>125769</v>
+      </c>
+      <c r="C33" t="s">
+        <v>318</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="J33" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="K33" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="L33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="O33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4093,56 +4404,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="X33" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="Y33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>57513</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>18986</v>
+      </c>
+      <c r="C34" t="s">
+        <v>326</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="J34" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="K34" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="L34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="O34" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4160,56 +4475,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="X34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="Y34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>57513</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>3891</v>
+      </c>
+      <c r="C35" t="s">
+        <v>335</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="J35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="K35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="L35" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="O35" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4225,47 +4544,51 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="X35" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="Y35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>57513</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>98241</v>
+      </c>
+      <c r="C36" t="s">
+        <v>342</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="J36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="K36" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="L36" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -4282,56 +4605,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="X36" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="Y36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>57513</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>125770</v>
+      </c>
+      <c r="C37" t="s">
+        <v>351</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="J37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="K37" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="L37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="O37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4349,56 +4676,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="X37" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="Y37" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>57513</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>125771</v>
+      </c>
+      <c r="C38" t="s">
+        <v>361</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="J38" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="K38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="L38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="O38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -4416,56 +4747,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="X38" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="Y38" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>57513</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>125772</v>
+      </c>
+      <c r="C39" t="s">
+        <v>370</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="J39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="K39" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="L39" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="O39" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4487,56 +4822,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="X39" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="Y39" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>57513</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>125773</v>
+      </c>
+      <c r="C40" t="s">
+        <v>380</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="J40" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="K40" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="L40" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="O40" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4558,56 +4897,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="X40" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="Y40" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>57513</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>125774</v>
+      </c>
+      <c r="C41" t="s">
+        <v>390</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="J41" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="K41" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="L41" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="O41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4629,56 +4972,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="X41" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="Y41" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>57513</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>2907</v>
+      </c>
+      <c r="C42" t="s">
+        <v>398</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="J42" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="K42" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="L42" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="O42" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4700,47 +5047,51 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="X42" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="Y42" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>57513</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>125775</v>
+      </c>
+      <c r="C43" t="s">
+        <v>408</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="J43" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="K43" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="L43" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
@@ -4767,56 +5118,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="X43" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="Y43" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>57513</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>111626</v>
+      </c>
+      <c r="C44" t="s">
+        <v>417</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="J44" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="K44" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="L44" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="O44" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4838,54 +5193,58 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="X44" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="Y44" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>57513</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>7196</v>
+      </c>
+      <c r="C45" t="s">
+        <v>428</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="J45" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="O45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4907,56 +5266,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="X45" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="Y45" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>57513</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>125776</v>
+      </c>
+      <c r="C46" t="s">
+        <v>436</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="J46" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="K46" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="L46" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="O46" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4978,56 +5341,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="X46" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="Y46" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>57513</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>125777</v>
+      </c>
+      <c r="C47" t="s">
+        <v>443</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="J47" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="K47" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="L47" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="O47" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5049,47 +5416,51 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="X47" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="Y47" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>57513</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>125774</v>
+      </c>
+      <c r="C48" t="s">
+        <v>408</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="J48" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="K48" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="L48" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
@@ -5116,56 +5487,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="X48" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="Y48" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>57513</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>125778</v>
+      </c>
+      <c r="C49" t="s">
+        <v>460</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="J49" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="K49" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="L49" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="O49" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5187,47 +5562,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="X49" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="Y49" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>57513</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>125779</v>
+      </c>
+      <c r="C50" t="s">
+        <v>468</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="J50" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="K50" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="L50" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
@@ -5254,56 +5633,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="X50" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="Y50" t="s">
-        <v>426</v>
+        <v>474</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>57513</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>125780</v>
+      </c>
+      <c r="C51" t="s">
+        <v>475</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="J51" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="K51" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="L51" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="O51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -5325,56 +5708,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="X51" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="Y51" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>57513</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>7208</v>
+      </c>
+      <c r="C52" t="s">
+        <v>483</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="J52" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="K52" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="L52" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="O52" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5396,56 +5783,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
       <c r="X52" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="Y52" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>57513</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>125781</v>
+      </c>
+      <c r="C53" t="s">
+        <v>492</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="J53" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="K53" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="L53" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="O53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5469,50 +5860,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>57513</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>125782</v>
+      </c>
+      <c r="C54" t="s">
+        <v>499</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="J54" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="K54" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="L54" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="O54" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5536,50 +5931,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>57513</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>125783</v>
+      </c>
+      <c r="C55" t="s">
+        <v>506</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="J55" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="K55" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="L55" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="O55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5603,41 +6002,45 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>57513</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>125784</v>
+      </c>
+      <c r="C56" t="s">
+        <v>512</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="J56" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="K56" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="L56" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
@@ -5664,56 +6067,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="X56" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="Y56" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>57513</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>125785</v>
+      </c>
+      <c r="C57" t="s">
+        <v>521</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="J57" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="K57" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="L57" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="O57" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5735,47 +6142,51 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="X57" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="Y57" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57513</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>125786</v>
+      </c>
+      <c r="C58" t="s">
+        <v>531</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="J58" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="K58" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="L58" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
@@ -5804,50 +6215,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>57513</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>125787</v>
+      </c>
+      <c r="C59" t="s">
+        <v>537</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="J59" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="K59" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="L59" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="O59" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5871,50 +6286,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>57513</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>125757</v>
+      </c>
+      <c r="C60" t="s">
+        <v>241</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="J60" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="K60" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="L60" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="O60" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5938,50 +6357,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>57513</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>125788</v>
+      </c>
+      <c r="C61" t="s">
+        <v>551</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="J61" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
       <c r="K61" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="L61" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="O61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6005,50 +6428,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>57513</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>125789</v>
+      </c>
+      <c r="C62" t="s">
+        <v>557</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="J62" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
       <c r="K62" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
       <c r="L62" t="s">
-        <v>503</v>
+        <v>562</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>504</v>
+        <v>563</v>
       </c>
       <c r="O62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6066,56 +6493,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
       <c r="X62" t="s">
-        <v>506</v>
+        <v>565</v>
       </c>
       <c r="Y62" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>57513</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>125790</v>
+      </c>
+      <c r="C63" t="s">
+        <v>567</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>508</v>
+        <v>568</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>509</v>
+        <v>569</v>
       </c>
       <c r="J63" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="K63" t="s">
-        <v>511</v>
+        <v>571</v>
       </c>
       <c r="L63" t="s">
-        <v>512</v>
+        <v>572</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>513</v>
+        <v>573</v>
       </c>
       <c r="O63" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -6139,50 +6570,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>514</v>
+        <v>574</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>57513</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>125791</v>
+      </c>
+      <c r="C64" t="s">
+        <v>575</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>515</v>
+        <v>576</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>516</v>
+        <v>577</v>
       </c>
       <c r="J64" t="s">
-        <v>517</v>
+        <v>578</v>
       </c>
       <c r="K64" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="L64" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="O64" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6206,50 +6641,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>57513</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>125792</v>
+      </c>
+      <c r="C65" t="s">
+        <v>582</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>521</v>
+        <v>583</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
       <c r="J65" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
       <c r="K65" t="s">
-        <v>524</v>
+        <v>586</v>
       </c>
       <c r="L65" t="s">
-        <v>525</v>
+        <v>587</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="O65" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6273,50 +6712,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>57513</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>125793</v>
+      </c>
+      <c r="C66" t="s">
+        <v>590</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>528</v>
+        <v>591</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>529</v>
+        <v>592</v>
       </c>
       <c r="J66" t="s">
-        <v>530</v>
+        <v>593</v>
       </c>
       <c r="K66" t="s">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="L66" t="s">
-        <v>532</v>
+        <v>595</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
       <c r="O66" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6340,7 +6783,7 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>532</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_108.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_108.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="714">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,48 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>GlendaMcM_2013</t>
-  </si>
-  <si>
-    <t>06/06/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r586445929-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>1157198</t>
+  </si>
+  <si>
+    <t>586445929</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A prison would be more welcoming </t>
+  </si>
+  <si>
+    <t>This hotel gives new meaning to the word deplorable. Practically everything is broken and run down, no AC, no wiFi, the staff take pleasure at being rude.management is conveniently never available and relay messages through staff. Do not use their conference services they are non existent. Broken partitions, lack of air/ventilation , poor lighting, no Wi-Fi...could not even produce an extension cord, will not even bring your conference items from the front desk into the conference room, u need to get a hand truck and do it yourself...Guest room had a water bug  size of a plate...I feel bad for some of the staff who would like to do their best but whose hands are tied by inept management. Any low fife with enough money can buy a franchise, that should not be the criteria for going into business. Train your staff, have standards. Exhibit customer service you deserve no guests until thenMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Vic P, General Manager at Comfort Suites Plano, responded to this reviewResponded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2018</t>
+  </si>
+  <si>
+    <t>This hotel gives new meaning to the word deplorable. Practically everything is broken and run down, no AC, no wiFi, the staff take pleasure at being rude.management is conveniently never available and relay messages through staff. Do not use their conference services they are non existent. Broken partitions, lack of air/ventilation , poor lighting, no Wi-Fi...could not even produce an extension cord, will not even bring your conference items from the front desk into the conference room, u need to get a hand truck and do it yourself...Guest room had a water bug  size of a plate...I feel bad for some of the staff who would like to do their best but whose hands are tied by inept management. Any low fife with enough money can buy a franchise, that should not be the criteria for going into business. Train your staff, have standards. Exhibit customer service you deserve no guests until thenMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r580521821-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
-    <t>56463</t>
-  </si>
-  <si>
-    <t>1157198</t>
-  </si>
-  <si>
     <t>580521821</t>
   </si>
   <si>
@@ -177,18 +204,15 @@
     <t>I expected a really clean and updated stay since it was Comfort Suites.  However, we were all in agreement that it was at the lower scale of other Comfort Suites we have stayed at.  The bathroom and the bathroom trip made us all say, "oh".  :)MoreShow less</t>
   </si>
   <si>
-    <t>Vic P, General Manager at Comfort Suites Plano, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
+    <t>Vic P, General Manager at Comfort Suites Plano, responded to this reviewResponded May 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2018</t>
   </si>
   <si>
     <t>I expected a really clean and updated stay since it was Comfort Suites.  However, we were all in agreement that it was at the lower scale of other Comfort Suites we have stayed at.  The bathroom and the bathroom trip made us all say, "oh".  :)More</t>
   </si>
   <si>
-    <t>rogersangel</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r575301969-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -219,9 +243,6 @@
     <t>Our family was transferred to this hotel after being lied to by another Comfort Suites that they had a working pool.  After staying one night at a sister hotel in Gainsville we were sent a hour away to stay at one in Plano.  The hotel was older and musty smelling. And the room was a little dated.  But the worst part was taking our kids down to the pool and hot tub that smelled so terrible like dead fish and dirty socks.  All the kids swimming in the pool kept yelling out that it stunk so bad.  There was no sign of chlorine and the water was a greenish color.  After going back and forth with this company they eventually offered a free nights stay in the same dirty hotel we were transferred to.  Oh, and we live 5 hours away.  I would never recommend this hotel to anyone.  And we had mold in our shower.More</t>
   </si>
   <si>
-    <t>Awgie G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r547231881-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -252,9 +273,6 @@
     <t>Had to book this short notice and the price was very good considering. The hotel was very busy as there was a youth soccer tournament in town but the room was surprisingly quiet.  Breakfast comes with the room, however with all the families and kids, I wasn't able to partake. The staff was very accommodating.  I checked in with my brother and his wife and they gave us adjacent rooms and considering how late we booked, I was somewhat impressed. The climate controls are 100% in the guests control, which is a big plus since I like a colder room.  The room was big and clean with a mini fridge and microwave.  They still use the mini drip coffee makers and not the Kuerigs so plan accordingly. Overall, very nice stay.More</t>
   </si>
   <si>
-    <t>Janis W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r545611653-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -279,9 +297,6 @@
     <t>Very comfortable lodging; good breakfast, friendly staff, clean room, everything operational. Suite had two queens plus a full size pull-out sofa. Traveling with two teenagers. Overall positive experience. More</t>
   </si>
   <si>
-    <t>DuffyNC</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r530046201-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -300,9 +315,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Vic P, General Manager at Comfort Suites Plano, responded to this reviewResponded October 6, 2017</t>
   </si>
   <si>
@@ -312,9 +324,6 @@
     <t>The Suites are conveniently located just off the highway and across the street from Top Golf. Despite the location, it was very quiet. The room was large and very clean. We were there for four days and never experienced a problem. The breakfasts are the usual fair you would expect. There are many restaurants nearby including an In n Out Burger. This is a great place to stay if you have business in the Metroplex. More</t>
   </si>
   <si>
-    <t>rfarris19</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r525643295-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -339,9 +348,6 @@
     <t>Very cheap, one of the cheapest in the entire town of plano, how can you possibly go wrong with this. and this hotel offers free breakfast every morning.and its a huge continental breakfast at that. Check it out.More</t>
   </si>
   <si>
-    <t>chappygma</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r507456815-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -369,9 +375,6 @@
     <t>I went on the high reviews on this hotel but they weren't close.  The air was musty smelling when I walked and that was first impression that was the right on.  The paint is peeling through out the room.  The tub facet was loose, hot tub cold.  The bed was ok.  For what we read was opposite of the reality.  I normally have had gr8 stays at Comfort Suites but this one is not the same quality.  This one needs some care.  More</t>
   </si>
   <si>
-    <t>bboylord</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r481815680-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -399,9 +402,6 @@
     <t>The hotel has a good location, the rooms are of a very good size, the staff is friendly and always on hand to help you. The breakfast is super limited in options. This hotel is for sleeping only not to enjoy its attractions.More</t>
   </si>
   <si>
-    <t>2013TheSwede</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r456075884-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -429,9 +429,6 @@
     <t>First time here and probably not last.Easy and positive checking.  Plenty of parking and offer hot breakfast.Only downside and dissapointment so far is that the reception not had a corkscrew for the wine bottle More</t>
   </si>
   <si>
-    <t>leighanneb_12812</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r453803068-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -456,9 +453,6 @@
     <t>We were impressed with the hotel. Room was nice and pool/hot tub area was great. Breakfast was a little blah. Wish they would have had some salsa or something g to flavor the eggs but everything else was great. Front desk staff was super friendly and helpful. More</t>
   </si>
   <si>
-    <t>JOHN K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r450530325-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -483,9 +477,6 @@
     <t>The room was clean, the service at the desk was good.  The pool was very nice.  The hotel in a decent location. My only issue is around 5:30 to 6:00 a.m. we started hearing loud banging which I have to assume were other guests leaving their rooms and slamming the doors. Oh well we almost had a good nights sleep.More</t>
   </si>
   <si>
-    <t>David S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r439758208-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -513,9 +504,6 @@
     <t>Nice hotel in a decent location.  Clean rooms and public spaces.  Very comfortable bed and nice, bright decor.  Plenty of parking available.My only issue was the customer service staff; friendly, but a little odd.More</t>
   </si>
   <si>
-    <t>Safiyakhan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r420346873-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -543,9 +531,6 @@
     <t>Just checked in they let us check in a couple hours early. Was easy to find just off of the freeway. Close and free parking. Lobby was attractive and clean, check in was smooth. Staff polite. Our room was good sized and clean and attractive. It has microwave and fridge, 2 queen beds and a sofa sleeper. They said breakfast is 6-9:30. Coffee available 24hr in lobby. There is a big snack vending store behind the front desk. Small indoor pool and hot tub and exercise gym. So far so good. Ask about early check out and was told price would like increase per night if we checked out early. We booked 5 nights at $99 per night. Beware over two persons per room there is a extra fee of $20 per night. Not included in original price quote. Deceptive. Better just charge $20 more upfront. So if you are a family like us it's $20 extra charge. For this reason I give it 3 stars. That and increase of price if you check out early. More</t>
   </si>
   <si>
-    <t>buddy s</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r416615520-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -570,9 +555,6 @@
     <t>Have stayed at many Comfort Suites. This one is pretty similar. Always clean, consistent and comfortable. Good pillows! The gentleman at the front desk was very friendly and accommodated me immediately. Looks like it's going to be another nice stay. More</t>
   </si>
   <si>
-    <t>Rooster C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r380405578-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -600,7 +582,130 @@
     <t>I've got to say... I'm a Choice Rewards Platinum member. But due to recent stays at various Comfort Inns and Suites, I'm quite disappointed in their decline. The motel was ok, but the breakfast was a vain attempt at a half-effort. This was not one of the nicer motels I've stayed at. It is in serious need of updates. The housekeeper failed to knock prior to entering our room. I'm just glad we were all dressed. She never apologized, and seemed put out that we asked her to wait a few minutes until we left. More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r362533971-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>362533971</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>Great room</t>
+  </si>
+  <si>
+    <t>Loved staying at this hotel, rooms where large and clean, staff was top notch. My only complaint is that there are not many eating establishments in walking distance from the hotel. You will definitely  need to have a car or cab to eatMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Vic P, General Manager at Comfort Suites Plano, responded to this reviewResponded April 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2016</t>
+  </si>
+  <si>
+    <t>Loved staying at this hotel, rooms where large and clean, staff was top notch. My only complaint is that there are not many eating establishments in walking distance from the hotel. You will definitely  need to have a car or cab to eatMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r356375682-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>356375682</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>Awesome place</t>
+  </si>
+  <si>
+    <t>Very helpful staff. clean rooms and comfortable. will be staying there again soon and often if we can reach a better rate agreement. The room is worth the stay but I'm cheap and visit every two weeks to see my 4 year old granddaughter.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Vic P, General Manager at Comfort Suites Plano, responded to this reviewResponded March 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2016</t>
+  </si>
+  <si>
+    <t>Very helpful staff. clean rooms and comfortable. will be staying there again soon and often if we can reach a better rate agreement. The room is worth the stay but I'm cheap and visit every two weeks to see my 4 year old granddaughter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r336725185-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>336725185</t>
+  </si>
+  <si>
+    <t>01/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and Comfortable </t>
+  </si>
+  <si>
+    <t>Stayed here the night before a hockey tournament to be close to the rink. The hotel was clean and the beds comfortable. The breakfast had plenty of choices of hot and cold food. We took advantage of the indoor pool and hot tub, which felt great!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Vic P, General Manager at Comfort Suites Plano, responded to this reviewResponded January 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here the night before a hockey tournament to be close to the rink. The hotel was clean and the beds comfortable. The breakfast had plenty of choices of hot and cold food. We took advantage of the indoor pool and hot tub, which felt great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r334119809-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>334119809</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>nice place if you don't need to sleep</t>
+  </si>
+  <si>
+    <t>Very nice room but we had noisy, yelling, fighting neighbors two nights in a row... despite multiple calls &amp; in-person complaints to the front desk.  My points were not credited for this stay so now I get to deal with them further.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Vic P, Manager at Comfort Suites Plano, responded to this reviewResponded December 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2015</t>
+  </si>
+  <si>
+    <t>Very nice room but we had noisy, yelling, fighting neighbors two nights in a row... despite multiple calls &amp; in-person complaints to the front desk.  My points were not credited for this stay so now I get to deal with them further.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r334100071-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>334100071</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Everything is great about this hotel. The lobby is beautiful and clean. The room was clean and presented nicely. The bathroom was clean and room service was very great. Wifi worked fast and furniture was new. The hotel is very modern and maintained well. I would stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Everything is great about this hotel. The lobby is beautiful and clean. The room was clean and presented nicely. The bathroom was clean and room service was very great. Wifi worked fast and furniture was new. The hotel is very modern and maintained well. I would stay here again!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r333744292-Comfort_Suites_Plano-Plano_Texas.html</t>
@@ -618,21 +723,9 @@
     <t>Very clean room with New furniture. WIFi worked fast and was free. Very friendly and helpful staff. We had trouble with our toilet and it was fixed right away. Great hotel overall. Close parking. Good breakfast. No complaints. We Will stay here many more times. MoreShow less</t>
   </si>
   <si>
-    <t>December 2015</t>
-  </si>
-  <si>
-    <t>Vic P, Manager at Comfort Suites Plano, responded to this reviewResponded December 23, 2015</t>
-  </si>
-  <si>
-    <t>Responded December 23, 2015</t>
-  </si>
-  <si>
     <t>Very clean room with New furniture. WIFi worked fast and was free. Very friendly and helpful staff. We had trouble with our toilet and it was fixed right away. Great hotel overall. Close parking. Good breakfast. No complaints. We Will stay here many more times. More</t>
   </si>
   <si>
-    <t>Lhutch72</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r322196349-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -648,12 +741,6 @@
     <t xml:space="preserve">Beds are very comfortable. Hotel is very clean. My only complaint is the walls are a bit thin so I heard the lady in the next room talking on her phone. Other than that it is very comfy. Breakfast was very good too. It is right along the interstate so access is very easy. </t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
-    <t>Cabbersham</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r314174134-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -681,9 +768,6 @@
     <t>I was very pleased with my stay at the Comfort Suites in Plano, Texas.  The hotel is very clean, updated, well maintained, and comfortable.  The staff is extremely friendly and helpful.  I received a great rate for a quality stay in some of the cleanest rooms I've seen.  I was only supposed to be in Plano for 2 days, but my business was unexpectedly extended to 6 days.  The staff went out of their way to accommodate me for the additional 4 days, and make my stay very comfortable.  I would absolutely stay here again on my next visit to Plano.More</t>
   </si>
   <si>
-    <t>Tiffany D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r310191248-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -711,9 +795,6 @@
     <t>We stayed here for vacation. Our room was very nice and the staff was very nice. The manger was great, I had a issue with something so I left a message for him to contact me about it, and he got right back with me. After speaking with him the issue was fixed.More</t>
   </si>
   <si>
-    <t>Javier R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r303702580-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -729,9 +810,6 @@
     <t>The hotel itself is physically appealing and clean. Most of the staff is friendly and the location is convenient. However, the issues came when I had to check out a day earlier than originally booked. At checkout, I was provided a receipt charging me only for the 3 nights I actually stayed for. I was very pleased with the removal of the cost for the projected night since I was not going to be staying there that night. However, a month later, I received a notification confirming that my credit card was charged for the full amount (4 nights). I called the hotel and inquired as to why I was charged for an amount differing from the receipt I was provided. I was transferred to their floor manager and he agreed to remove half of the daily charge. However, by this time, my business expense report was already completed and I ended up having to pay for the extra fees myself. My issue here isn't paying for the extra night. I would have, without complaints, paid for this night since that was what I originally booked. My problem is with the treatment I was given when I called the hotel to complain. The manager I talked to was very rude, even though it was verified that the receipt I was given did not include the fees I was charged for. The reduction provided was given to me as if I...The hotel itself is physically appealing and clean. Most of the staff is friendly and the location is convenient. However, the issues came when I had to check out a day earlier than originally booked. At checkout, I was provided a receipt charging me only for the 3 nights I actually stayed for. I was very pleased with the removal of the cost for the projected night since I was not going to be staying there that night. However, a month later, I received a notification confirming that my credit card was charged for the full amount (4 nights). I called the hotel and inquired as to why I was charged for an amount differing from the receipt I was provided. I was transferred to their floor manager and he agreed to remove half of the daily charge. However, by this time, my business expense report was already completed and I ended up having to pay for the extra fees myself. My issue here isn't paying for the extra night. I would have, without complaints, paid for this night since that was what I originally booked. My problem is with the treatment I was given when I called the hotel to complain. The manager I talked to was very rude, even though it was verified that the receipt I was given did not include the fees I was charged for. The reduction provided was given to me as if I was begging for money and not as compensation for their staff making a mistake. I will not be staying here again and I would caution others to scrutinize their receipts and make sure no other fees will apply after checkout. This seems like a very irresponsible business practice and I believe their staff should be better trained to understand policy and deal with complaints.MoreShow less</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
     <t>Jordan P, Front Office Manager at Comfort Suites Plano, responded to this reviewResponded August 27, 2015</t>
   </si>
   <si>
@@ -741,7 +819,130 @@
     <t>The hotel itself is physically appealing and clean. Most of the staff is friendly and the location is convenient. However, the issues came when I had to check out a day earlier than originally booked. At checkout, I was provided a receipt charging me only for the 3 nights I actually stayed for. I was very pleased with the removal of the cost for the projected night since I was not going to be staying there that night. However, a month later, I received a notification confirming that my credit card was charged for the full amount (4 nights). I called the hotel and inquired as to why I was charged for an amount differing from the receipt I was provided. I was transferred to their floor manager and he agreed to remove half of the daily charge. However, by this time, my business expense report was already completed and I ended up having to pay for the extra fees myself. My issue here isn't paying for the extra night. I would have, without complaints, paid for this night since that was what I originally booked. My problem is with the treatment I was given when I called the hotel to complain. The manager I talked to was very rude, even though it was verified that the receipt I was given did not include the fees I was charged for. The reduction provided was given to me as if I...The hotel itself is physically appealing and clean. Most of the staff is friendly and the location is convenient. However, the issues came when I had to check out a day earlier than originally booked. At checkout, I was provided a receipt charging me only for the 3 nights I actually stayed for. I was very pleased with the removal of the cost for the projected night since I was not going to be staying there that night. However, a month later, I received a notification confirming that my credit card was charged for the full amount (4 nights). I called the hotel and inquired as to why I was charged for an amount differing from the receipt I was provided. I was transferred to their floor manager and he agreed to remove half of the daily charge. However, by this time, my business expense report was already completed and I ended up having to pay for the extra fees myself. My issue here isn't paying for the extra night. I would have, without complaints, paid for this night since that was what I originally booked. My problem is with the treatment I was given when I called the hotel to complain. The manager I talked to was very rude, even though it was verified that the receipt I was given did not include the fees I was charged for. The reduction provided was given to me as if I was begging for money and not as compensation for their staff making a mistake. I will not be staying here again and I would caution others to scrutinize their receipts and make sure no other fees will apply after checkout. This seems like a very irresponsible business practice and I believe their staff should be better trained to understand policy and deal with complaints.More</t>
   </si>
   <si>
-    <t>texasshopr</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r292350139-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>292350139</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Feeling Cramped</t>
+  </si>
+  <si>
+    <t>Won’t be staying here again.  This Comfort Suites did not live up to what I’ve come to expect from Comfort Suites, having stayed in multiple ones in multiple states, this one is a the bottom.  Typically love the space in both the King Suite and the Queen Suite, but this one was a long skinny room with no place to move around.  Everything seemed to be up against something else, had to move the coffee table back against the couch in order to walk by it.  Looked like a regular size room with some of the King Suite furniture stuffed in it, because it didn’t have all the typical furniture that the big King/Queen Suite usually has.  The bathroom was small, as well as missing the nice shower head they usually have.  The marble counter was beautiful, but much too big for the bathroom.  If my kids had been along there is no way we could have survived in this small space, luckily it was just the two of us.  I will say that the cleanliness of the room did live up to expectations, the room was spotless, no complaints there.  Didn’t have the chance to use the pool or hot tub this trip, but did walk down to check them out, I can honestly say I’ve never seen a hotel pool this small in any hotel I’ve stayed in.  The lobby area was badly laid out, if anyone was...Won’t be staying here again.  This Comfort Suites did not live up to what I’ve come to expect from Comfort Suites, having stayed in multiple ones in multiple states, this one is a the bottom.  Typically love the space in both the King Suite and the Queen Suite, but this one was a long skinny room with no place to move around.  Everything seemed to be up against something else, had to move the coffee table back against the couch in order to walk by it.  Looked like a regular size room with some of the King Suite furniture stuffed in it, because it didn’t have all the typical furniture that the big King/Queen Suite usually has.  The bathroom was small, as well as missing the nice shower head they usually have.  The marble counter was beautiful, but much too big for the bathroom.  If my kids had been along there is no way we could have survived in this small space, luckily it was just the two of us.  I will say that the cleanliness of the room did live up to expectations, the room was spotless, no complaints there.  Didn’t have the chance to use the pool or hot tub this trip, but did walk down to check them out, I can honestly say I’ve never seen a hotel pool this small in any hotel I’ve stayed in.  The lobby area was badly laid out, if anyone was at the front desk, you had to walk through the couch area to get around them and disturb anyone sitting there.  If there was a large group trying to check in, you couldn’t get through at all.  The “business center” was a laugh, one computer stuck in the corner by the front door.  Small dining area, food was OK, not much selection, only butter and cream cheese to go on toast, no jelly or anything else.  SMALL seems to be the consistent description I have used here, but that’s the best way to describe it, small.  The location was not a good one either, had it not been for the fact that I have lived in this area previously for a number of years and that it was daytime when I arrived, I doubt I would have been able to find it.  To have to enter through a gas station/liquor store to get to the parking lot was a challenge.  Asked to speak to the manager when I checked out and was told that the manager would not be in till later and they would have the manager call me, well 3 days later, still no call.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Jordan P, Manager at Comfort Suites Plano, responded to this reviewResponded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Won’t be staying here again.  This Comfort Suites did not live up to what I’ve come to expect from Comfort Suites, having stayed in multiple ones in multiple states, this one is a the bottom.  Typically love the space in both the King Suite and the Queen Suite, but this one was a long skinny room with no place to move around.  Everything seemed to be up against something else, had to move the coffee table back against the couch in order to walk by it.  Looked like a regular size room with some of the King Suite furniture stuffed in it, because it didn’t have all the typical furniture that the big King/Queen Suite usually has.  The bathroom was small, as well as missing the nice shower head they usually have.  The marble counter was beautiful, but much too big for the bathroom.  If my kids had been along there is no way we could have survived in this small space, luckily it was just the two of us.  I will say that the cleanliness of the room did live up to expectations, the room was spotless, no complaints there.  Didn’t have the chance to use the pool or hot tub this trip, but did walk down to check them out, I can honestly say I’ve never seen a hotel pool this small in any hotel I’ve stayed in.  The lobby area was badly laid out, if anyone was...Won’t be staying here again.  This Comfort Suites did not live up to what I’ve come to expect from Comfort Suites, having stayed in multiple ones in multiple states, this one is a the bottom.  Typically love the space in both the King Suite and the Queen Suite, but this one was a long skinny room with no place to move around.  Everything seemed to be up against something else, had to move the coffee table back against the couch in order to walk by it.  Looked like a regular size room with some of the King Suite furniture stuffed in it, because it didn’t have all the typical furniture that the big King/Queen Suite usually has.  The bathroom was small, as well as missing the nice shower head they usually have.  The marble counter was beautiful, but much too big for the bathroom.  If my kids had been along there is no way we could have survived in this small space, luckily it was just the two of us.  I will say that the cleanliness of the room did live up to expectations, the room was spotless, no complaints there.  Didn’t have the chance to use the pool or hot tub this trip, but did walk down to check them out, I can honestly say I’ve never seen a hotel pool this small in any hotel I’ve stayed in.  The lobby area was badly laid out, if anyone was at the front desk, you had to walk through the couch area to get around them and disturb anyone sitting there.  If there was a large group trying to check in, you couldn’t get through at all.  The “business center” was a laugh, one computer stuck in the corner by the front door.  Small dining area, food was OK, not much selection, only butter and cream cheese to go on toast, no jelly or anything else.  SMALL seems to be the consistent description I have used here, but that’s the best way to describe it, small.  The location was not a good one either, had it not been for the fact that I have lived in this area previously for a number of years and that it was daytime when I arrived, I doubt I would have been able to find it.  To have to enter through a gas station/liquor store to get to the parking lot was a challenge.  Asked to speak to the manager when I checked out and was told that the manager would not be in till later and they would have the manager call me, well 3 days later, still no call.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r290725058-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>290725058</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Great hospitality and location</t>
+  </si>
+  <si>
+    <t>The room was nice and bed comfortable (loved all of the pillows).  Breakfast was okay. I would like to suggest a mat be placed in front of the elevator. I fell when I stepped off of the elevator on Saturday afternoon due to wet floors from the pool. This was not only embarrassing but a little painful. The desk clerk saw me fall and apologized. I suggested that he place a wet floor sign there, so it wouldn't happen again. Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jordan P, Manager at Comfort Suites Plano, responded to this reviewResponded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2015</t>
+  </si>
+  <si>
+    <t>The room was nice and bed comfortable (loved all of the pillows).  Breakfast was okay. I would like to suggest a mat be placed in front of the elevator. I fell when I stepped off of the elevator on Saturday afternoon due to wet floors from the pool. This was not only embarrassing but a little painful. The desk clerk saw me fall and apologized. I suggested that he place a wet floor sign there, so it wouldn't happen again. Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r286504309-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>286504309</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Decent size room, bed was comfortable, fair price, clean hotel (including lobby and breakfast area), very nice staff, close to other stores plus a mini store in the lobby. Overall a good experience,I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Jordan P, Manager at Comfort Suites Plano, responded to this reviewResponded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Decent size room, bed was comfortable, fair price, clean hotel (including lobby and breakfast area), very nice staff, close to other stores plus a mini store in the lobby. Overall a good experience,I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r280958377-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>280958377</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>I had to deal with a broken shower!!  They said they would put us in another room, which I was fine with till I saw this on the bed.  The manager said he would get us a room we had waited over three hours with the water cut off to our room!!!  No access to running water or toilet!!!   Once we had checked out early I noticed the hotel recharged me and denied charging my account for a second time.  I would NOT stay at this hotel!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jordan P, Front Office Manager at Comfort Suites Plano, responded to this reviewResponded June 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2015</t>
+  </si>
+  <si>
+    <t>I had to deal with a broken shower!!  They said they would put us in another room, which I was fine with till I saw this on the bed.  The manager said he would get us a room we had waited over three hours with the water cut off to our room!!!  No access to running water or toilet!!!   Once we had checked out early I noticed the hotel recharged me and denied charging my account for a second time.  I would NOT stay at this hotel!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r280262391-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>280262391</t>
+  </si>
+  <si>
+    <t>06/14/2015</t>
+  </si>
+  <si>
+    <t>Very nice, good value</t>
+  </si>
+  <si>
+    <t>Very nice rooms! The beds are comfy. You get 4 pillows combination of soft and firm. All areas are clean, lobby, breakfast,etc Front desk is nice and accommodating. I would stay there again. Close to other store's, rest . They have a store inside lobby if u need a quick snack MoreShow less</t>
+  </si>
+  <si>
+    <t>Jordan P, Front Office Manager at Comfort Suites Plano, responded to this reviewResponded June 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2015</t>
+  </si>
+  <si>
+    <t>Very nice rooms! The beds are comfy. You get 4 pillows combination of soft and firm. All areas are clean, lobby, breakfast,etc Front desk is nice and accommodating. I would stay there again. Close to other store's, rest . They have a store inside lobby if u need a quick snack More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r279150793-Comfort_Suites_Plano-Plano_Texas.html</t>
@@ -750,10 +951,25 @@
     <t>279150793</t>
   </si>
   <si>
-    <t>June 9, 2015</t>
-  </si>
-  <si>
-    <t>JajaLalaMimiEE</t>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>Tried and true</t>
+  </si>
+  <si>
+    <t>We have stayed here numerous times.  We have always been satisfied.  We selected a handicap accessible room this time to due to availability and price.  The room was very large with 2 a/c units with 2 thermostats.  As always the bed was very comfortable and the room had everything we needed.  Everything was well maintained and in working order.  If you don't need an accessible room, take note, the bathroom vanity area is tiny (no room to sit anything down).  For this reason alone, I will never choose an accessible room again.  Our room was right next to the elevator and I expected lots of noise but there was none.  We will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Jordan P, Manager at Comfort Suites Plano, responded to this reviewResponded June 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2015</t>
+  </si>
+  <si>
+    <t>We have stayed here numerous times.  We have always been satisfied.  We selected a handicap accessible room this time to due to availability and price.  The room was very large with 2 a/c units with 2 thermostats.  As always the bed was very comfortable and the room had everything we needed.  Everything was well maintained and in working order.  If you don't need an accessible room, take note, the bathroom vanity area is tiny (no room to sit anything down).  For this reason alone, I will never choose an accessible room again.  Our room was right next to the elevator and I expected lots of noise but there was none.  We will stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r277373690-Comfort_Suites_Plano-Plano_Texas.html</t>
@@ -762,10 +978,22 @@
     <t>277373690</t>
   </si>
   <si>
-    <t>June 2, 2015</t>
-  </si>
-  <si>
-    <t>RRT10</t>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>Fairly new and decent place</t>
+  </si>
+  <si>
+    <t>Convenient location on 190E and hwy75.  Be sure to ask for room furthest away from the highway!The double queen with sofa bed can easily sleep 5-6.  Plenty of electrical plugs for easy access w good wifi receptionThe window unit AC can be noisy but they have those thermostat with Numeric LED indicator for setting temperature so u won't have to get and fiddle with it in the middle of the night.Indoor pool is small but the kids still enjoy it.  Breakfast is adequate with warm eggs, sausages,  waffle plus other usual continental BF items. Will come back to this one again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jordan P, Front Office Manager at Comfort Suites Plano, responded to this reviewResponded June 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2015</t>
+  </si>
+  <si>
+    <t>Convenient location on 190E and hwy75.  Be sure to ask for room furthest away from the highway!The double queen with sofa bed can easily sleep 5-6.  Plenty of electrical plugs for easy access w good wifi receptionThe window unit AC can be noisy but they have those thermostat with Numeric LED indicator for setting temperature so u won't have to get and fiddle with it in the middle of the night.Indoor pool is small but the kids still enjoy it.  Breakfast is adequate with warm eggs, sausages,  waffle plus other usual continental BF items. Will come back to this one again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r273193581-Comfort_Suites_Plano-Plano_Texas.html</t>
@@ -792,9 +1020,6 @@
     <t>Hidden gem! Wonderful hotel very nice and quite hotel.Melvin, Greg, Jordan, Rick and Disha everyone is very attentive and provides excellent customer service. The manager Jordan is very calm and polite and I think customer service is what he breathes! Everyone in the hotel is very  kind and polite and willing to assist. Quite Rooms, New room feeling, Great Swimming Pool. Great Breakfast and Excellent Clean Bathrooms. Great Job! Thank you for all the excellent customer service.Just asked for the nearest mall and they were helpful to print directions and also to show the way in details. Great polite customer care Great Hotel. WIFI speed was excellent. Great Coffee and Juice machines all day!More</t>
   </si>
   <si>
-    <t>Kelery</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r272800526-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -819,9 +1044,6 @@
     <t>My husband and I stayed at this hotel this past weekend.  When we checked in, we thought the hotel was really nice.  On our first night there (about 11pm) the fire alarm started beeping in our room.  My husband called the front desk and explained to the clerk that the alarm battery needed to be changed.  She said that they didn't have a maintenance person on staff and didn't really know what she should do.  My husband said that she needed to decide because we couldn't stay in the room.  He went down to the front desk and the clerk had the manager on the phone.  He asked my husband if he knew what needed to be done to change the battery and husband said yes so the manager replied "OK, I'm about 30 minutes away, I'll bring you a ladder &amp; battery and you can change the battery.". For obvious reasons, my husband declined to do that.  The manager then apologized and said that he would comp the room for our inconvenience and moved us to another room.  When we checked out yesterday, the night had not been comped, only was given a $30 discount.  We called the corporate office today and they said that there wasn't anything they could do. What amuses me the most is they have signs everywhere that states " our satisfaction is their priority".  Clearly... That isn't the case....More</t>
   </si>
   <si>
-    <t>Alonso S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r270174785-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -849,7 +1071,91 @@
     <t>I booked this room for a business trip a Whole week. The price was so reasonable. I was not disappointed. Rooms were great. Service was outstanding! Staff was friendly and very accommodating, I loved the breakfast, the self-serving waffle machine. Without a doubt I'd recommend it. The room had Microwave, Coffee Maker, refrigerator, big screen, comfortable business chair. I was happy there.Great Guys, Disha, Jordan and Melvin.More</t>
   </si>
   <si>
-    <t>George29841</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r269689418-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>269689418</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>Very comfortable stay</t>
+  </si>
+  <si>
+    <t>We had a "run in-run out" one night stay and Comfort Suites made it effortless.  We made the reservations just a couple of days in advance through Choice Hotel and when we arrived, check in went seamlessly.  Our room was very nice. It was clean and well appointed for the price.  The bathroom was also nicely laid out and clean with plenty of good towels.  The bed was tall, but the mattress was very comfortable.  The breakfast, while being standard complimentary style, was good and the eating area clean. Check-out was a breeze.  This hotel was more than worth the price, an excellent value.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a "run in-run out" one night stay and Comfort Suites made it effortless.  We made the reservations just a couple of days in advance through Choice Hotel and when we arrived, check in went seamlessly.  Our room was very nice. It was clean and well appointed for the price.  The bathroom was also nicely laid out and clean with plenty of good towels.  The bed was tall, but the mattress was very comfortable.  The breakfast, while being standard complimentary style, was good and the eating area clean. Check-out was a breeze.  This hotel was more than worth the price, an excellent value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r259498844-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>259498844</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>Bedbugs</t>
+  </si>
+  <si>
+    <t>Everything was fine until the bedbugs tore me up - 75 to 100 bites total (room 207).  I reported the issue at checkout on Friday morning and was promised a call back.  i received no call Friday.  I called Saturday and was told I would get a call Monday.  I tried to contact corporate, but their online incident portal was down.  i ended up contacting corporate via social media.  I received a call back from the hotel Monday evening and was told there was really nothing they could do since I booked through CLC except 5000 points (not even enough for a free night).I'm disappointed I got eaten alive by bedbugs.  I'm disappointed in the time it took anyone to contact me.  I'm disappointed in the consolation offered.  I'm very disappointed in Choice Hotels in general.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Everything was fine until the bedbugs tore me up - 75 to 100 bites total (room 207).  I reported the issue at checkout on Friday morning and was promised a call back.  i received no call Friday.  I called Saturday and was told I would get a call Monday.  I tried to contact corporate, but their online incident portal was down.  i ended up contacting corporate via social media.  I received a call back from the hotel Monday evening and was told there was really nothing they could do since I booked through CLC except 5000 points (not even enough for a free night).I'm disappointed I got eaten alive by bedbugs.  I'm disappointed in the time it took anyone to contact me.  I'm disappointed in the consolation offered.  I'm very disappointed in Choice Hotels in general.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r259027762-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>259027762</t>
+  </si>
+  <si>
+    <t>03/11/2015</t>
+  </si>
+  <si>
+    <t>Clean and Great Price.</t>
+  </si>
+  <si>
+    <t>Very clean and great price. I was pleasantly surprised by this hotel, it has been remodeled lately and the staff is great. Good continental breakfast in the morning, don't get me wrong they still have powder eggs, but decent. Great location right across from TOP Golf and close to downtown.The Drunken Donkey is right across the street always busy and they have great drinks and good service. Only about 25 minutes from DFW, without traffic. A lot of construction in this areas because of the new Nebraska Furniture Mart, so plan accordingly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r258648144-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>258648144</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t>Very Clean &amp; Comfortable</t>
+  </si>
+  <si>
+    <t>I have no complaints about this hotel other than I wish the lighting in the room had been brighter. Just made it hard to do paperwork. The room was clean, bed was very comfy, and there were plenty of extra towels in the bathroom. The staff was friendly and accommodating. We would have stayed another night but they were booked up. I would definitely recommend this place to family &amp; friends.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r250937866-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>250937866</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>Will definitely be back!</t>
+  </si>
+  <si>
+    <t>The front desk staff went above and beyond to make sure my family’s stay was an enjoyable experience. When we asked about nearby food options, Jordan quickly gathered some menus and walked me through a few of them. It is conveniently located with plenty of places to eat nearby. The rooms are well decorated and cozy with a nice seating area. The bed was out of this world, so comfortable! Great hotel at a fantastic price.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r245571388-Comfort_Suites_Plano-Plano_Texas.html</t>
@@ -870,9 +1176,6 @@
     <t>December 2014</t>
   </si>
   <si>
-    <t>BransonMusicUSA</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r244341097-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -888,9 +1191,6 @@
     <t xml:space="preserve">We took our group to Texas for an engagement and we loved staying here.  From the staff to the hotel everything was first class. JR and the whole Staff was very friendly, professional and accomodating.  We have stayed at many hotels over the years and the experience  we had here was unmatched.  Rooms were clean and very nice.  It all really worked out well for all our group.  We will be back again and would highly recommend this hotel. </t>
   </si>
   <si>
-    <t>Grampa1951</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r242563359-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -906,12 +1206,6 @@
     <t>Everything was great but the bugs in the bathroom.  I caught some and took them to the front desk and the young man's reaction was, well they are not the bad kind, just tying to get in out of the cold.  We were on the 4th floor.  they worked pretty hard to get up there to get out of the cold.</t>
   </si>
   <si>
-    <t>November 2014</t>
-  </si>
-  <si>
-    <t>MelindaS373</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r242453345-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -924,9 +1218,6 @@
     <t xml:space="preserve">I booked this room for a business trip.  I wasn't sure what I would get because the price was so reasonable.  I thought I would take a chance.  I was not disappointed.  Rooms were great.  Service was outstanding!  Staff was friendly and very accommodating.  </t>
   </si>
   <si>
-    <t>htwh</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r241094453-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -951,9 +1242,6 @@
     <t>This hotel is right next to a couple of others, one of which allows pets (and their comments reflect it), and the other which is twice as much. The Comfort has an indoor pool and jacuzzi, the bed is comfy, but there could have been a better layout so that one could watch TV or use a laptop without waking up someone on the pullout couch, which itself was not so comfy. Breakfast was great, and there were Texas-shaped waffles! Parking is a little tight. Desk people all very friendly. Gave it a 5 due to rounding.More</t>
   </si>
   <si>
-    <t>byrusber</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r240734134-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -972,9 +1260,6 @@
     <t>I stayed at this hotel 6 nights for business purpose. It is very close to Cisco Systems Plano (Richardson) office (5 mins by walking). The room and bathroom were quite big and clean. Bed was huge and comfortable. Room has iron and ironing table, it was useful.Front desk staff was very polite.Air condition was a little noisy when its turned on. Breakfast was so so, not much choices.There are several restaurants for food around hotel (5 to 10 mins by walking).As a summary it was nice hotel to stay. If i go to the Plano again, i will stay at this hotel again.More</t>
   </si>
   <si>
-    <t>sunni014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r236120475-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -996,9 +1281,6 @@
     <t>Stayed overnight at this hotel because my grandson had a doctor's visit in Plano. Arrived early and the attendant was very helpful and polite. He helped us with directions to the facility we were going early the next morning. The breakfast area was well maintained and offered a varied selection of items. Our room was clean and the only negatives were a minor drip in the bathtub and the AC was a little loud. However, we did enjoy our stay and will be back in February for another doctor's visit and will stay at this location again.More</t>
   </si>
   <si>
-    <t>Cheryl B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r234307800-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1023,9 +1305,6 @@
     <t>We arrived in the early evening and was given very good directions to a nearby deli as my husband was not feeling well and we were going to eat light in the room.  Apparently he got to feeling worse during the night and in the early morning awoke me to tell me he needed to go to an emergency room.  I quickly dressed and went to the front desk for assistance.  Jordan quickly got on the computer for directions to the nearest hospital emergency room while I grabbed a quick breakfast for myself.  There were offers to help get me packed up in case he was hospitalized but I declined as we had only bought in a few items.  As one can read the front desk staff is very knowledgeable and helpful.  I would definitely return to stay there but do want a longer stay at this lovely place.More</t>
   </si>
   <si>
-    <t>Mike C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r233933387-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1044,9 +1323,6 @@
     <t>I just returned from a quick business trip to Plano and stayed at the Comfort Suites Hotel.The hotel is located just off the Bush Freeway.  Our check-in was quick and pleasant.  The associate working the front desk very extremely nice and welcoming.  The hotel is very well maintained.  In fact, we thought the hotel was brand new because it was so clean and actually smelled like a new building.  But, we were told the hotel is around 5 years old.Walking to my room I really noticed how clean the hallways were and just couldn't believe the place hadn't just opened.  The rooms are very spacious and the beds were amazing.  Very comfortable and plush.The only complaint was the free breakfast in the morning.  It wasn't bad, just comparable to most free hotel breakfasts.  Just cereal, sausage, and egg patties.There are restaurants around the area.  I would recommend Apollonia's Italian Kitchen just on the other side of the freeway.  Great food and service!Overall we were pleased with our stay and would definitely consider staying here again.More</t>
   </si>
   <si>
-    <t>Dlwalton81</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r231535876-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1071,9 +1347,6 @@
     <t>I stayed at this hotel this past weekend for the Razorback vs. Texas A&amp;M game. Excellent hotel. Nice friendly staff throughout the day. Staff are knowledgeable of the area. Hotel is neat and clean. I would definitely stay again. Hotel is in good location of shopping, eating, etc. There was no concern of safety, parking lot well lit and open. More</t>
   </si>
   <si>
-    <t>filmbuffintexas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r221605647-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1101,9 +1374,6 @@
     <t>It is not as easy as you would think to find a nice and affordable hotel in the Dallas area since there are so many, many choices. We checked www.tripadvisor.com before we booked and were delighted to find that there was a Comfort Suites hotel in Plano, Texas.  And, yes, all the other tripadvisor reviews are correct in that this is a nice, clean place for the traveler to stay.  Another plus for the traveler to Dallas is that it is located near the intersection of US 75 and President George Bush Turnpike so you can check out and be on your way in minutes. Finally, I  just want to mention the great staff at the front desk.  They are more than happy to  help you with travel directions, etc.More</t>
   </si>
   <si>
-    <t>Niki H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r221571825-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1128,9 +1398,6 @@
     <t>This was a great stay as always at Comfort Suites!  The desk staff was really nice and welcoming on arrival.  The room was fresh and clean.  Only negative...at 9:30am breakfast is over !!!  The lady cleaning up was on a schedule and she means business!  She stopped us mid cooking of our Texas shaped waffle and said breakfast was over and she needed to clean up!!  Was kinda funny but not so funny when 2 of us had to share 1 waffle.More</t>
   </si>
   <si>
-    <t>Tom-Brenda</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r211872384-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1158,9 +1425,6 @@
     <t>We were very happy with the clean rooms and everyone was very polite, we were hoping to stay close to the George Bush museum but this was farther than we expected.  We slept well and the breakfast was good.  Another good experience at a Comfort Suites.  Although don't expect much of the gym the equipment was not all in working order.  They had a nice indoor pool but we didn't use it.More</t>
   </si>
   <si>
-    <t>Challis B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r194793381-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1188,9 +1452,6 @@
     <t>Relatively new Comfort Suites.  Good value for the price.  Room was nice with a comfortable king size bed.  Good breakfast in the morning.  Good location near the insersection of US 75 and President George Bush Turnpike.More</t>
   </si>
   <si>
-    <t>HBTulsa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r191645892-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1212,9 +1473,6 @@
     <t>My family and I spent two nights there. We rented a room for five and have to say in was very comfortable, good beds, and pillows.  The indoor pool (small but nice)  is a big attraction considering it is winter and  not all hotels nearby have indoor pools. This was a main plus for us.  The main advantage of this hotel is location, you can reach easily local museums, big malls and stay  close to highway 75. On the flip side  the TV channels option just OK.  The room needed a TLC and the breakfast  buffet was kind of poor. The staff was very friendly and that helps a lot.If you are planning a family trip to Dallas on tight budget and just stay to be away of north Dallas, this hotel "fits for the purpose"More</t>
   </si>
   <si>
-    <t>Jim S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r187489979-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1242,9 +1500,6 @@
     <t>What a pleasant place to stay.We made reservations at the Comfort Suites, and used our GPS to find it.It is off of U.S. 75, but not far.Friendly greeting by the desk clerk and keys in hand, headed for our room.What a pleasant room.Nicely decorated, as all Comfort Suites are, and plenty of amenities.The room was large, with a comfotable sleeper sofa to sit on and watch television or read.The Internet connection was good, and fast.We slept well, as the room had a very comfortable King bed and was very, very quiet.There are plenty of places to eat in the area, but might be a bit far to walk to most.Some can be walked to, but across busy streets.A definite YES, when asked if we would stay in this Comfort Suites again.More</t>
   </si>
   <si>
-    <t>onlymeinArkansas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r178505466-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1269,9 +1524,6 @@
     <t>Stayed here several times and I am always pleased to give them my business. Good breakfast in the morning. Staff are polite and helpful. I have even stayed here and put up with a 40 minute drive to downtown Dallas, rather than book into a downtown hotel.More</t>
   </si>
   <si>
-    <t>Garry H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r173732608-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1290,9 +1542,6 @@
     <t>August 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>ComfortSuitesPlano, General Manager at Comfort Suites Plano, responded to this reviewResponded August 26, 2013</t>
   </si>
   <si>
@@ -1302,9 +1551,6 @@
     <t>As are most Comfort Suites, this place was a great value for the price. Hotel appears fairly new and well maintained. Room was nice and bed was very comfortable. Everything in the room actually worked, which isn't all ways true at some places. Ashley at the front desk was a great help on where to eat. Thanks Ashley! Breakfast was good and well stocked, which isn't all ways true in some places. This is a Comfort Suites that I will go back to.More</t>
   </si>
   <si>
-    <t>Jerry A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r173389264-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1326,9 +1572,6 @@
     <t>More</t>
   </si>
   <si>
-    <t>DeanoRubino</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r172982197-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1347,9 +1590,6 @@
     <t>Basic needs are met in a clean and safe setting.  While location next to freeway enables easy on and easy off; it also generates more noise that can be problematic based on room location.  Amenities are nice.  Room was large for the chain as it included a separate sitting area.  Breakfast is classic Comfort Suites...nothing special; not bad either.  Essentially a kick start for the day.More</t>
   </si>
   <si>
-    <t>LipseyJ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r172736240-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1398,9 +1638,6 @@
     <t>Working around the Dallas area for a few months we have moved between various hotels. We are so impressed with this hotel that we are staying long term and putting up with the extra commute every day.More</t>
   </si>
   <si>
-    <t>MSMOOT</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r171361956-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1422,9 +1659,6 @@
     <t>Loved the rooms and convenience to restaurants. Clean and extra comfy beds here. As a business traveler this meets the needs and the price is very reasonable. Breakfast was homemade sausage gravy and biscuits one morning, not out of a can!More</t>
   </si>
   <si>
-    <t>darac77</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r168473502-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1441,9 +1675,6 @@
   </si>
   <si>
     <t>Clean rooms, good service. Nice indoor pool and hot tub... Full hot breakfast. Must stay if you are in the plano Richardson area. Also you will not go wrong since there are done nice restaurants across the highway.More</t>
-  </si>
-  <si>
-    <t>linda g</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r166115938-Comfort_Suites_Plano-Plano_Texas.html</t>
@@ -1475,9 +1706,6 @@
 We slept thru breakfast due to our late arrival, so no comment there.  We tried out the pool.  It is a small indoor pool...This was a last minute attempt to get out of the house locally.  It was very late, and had tried several other local hotels.  All prices were too much $$ considering the room stay would be less than 10 hours.  Did a quick drive-by this locale, as had never stayed there.  Greeted by a nice gentleman at the front desk.  They had a room meeting my request, for a reasonable cost.Our priority was a bed and some sleep.  The beds were heavenly.  They were comfortable and dreamy.  The pillows were excellent, a variety to choose from.  The sheets were soft and heavenly as well.  Even if everything else has gone bad, the bed would of been worth the stay!  My only initial complaint was there was no ice machine on the floor we were on.  I guess these days, for a 4 story hotel, they only put ice machines on 2 of the 4 floors.  Aggravating when you just want to run down the hall quick to grab ice, but instead have to go to another floor.This is a fairly new hotel, so was surprised at the level of noise in the hall floors, creeking, squeaking.  Had no affect on our ability to sleep though, so no biggie.  Floor must be wood vs concrete.We slept thru breakfast due to our late arrival, so no comment there.  We tried out the pool.  It is a small indoor pool with hot tub.  The pool water was too cold for swimming.  The hot tub was ok, but not very hot.Ran by the front desk upon checkout, just to make sure all ok.  The desk clerk indicated the internet was down, so they could not print receipts or anything.  Seems they should have a backup way to check folks out.More</t>
   </si>
   <si>
-    <t>dietrichmd</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r164448582-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1510,9 +1738,6 @@
 Fast forward a few hours and we are done with...TL;DR: Room: A-, Facilities: A-, Service: B- In town for a business trip for a few days, I booked a room at this hotel because the Homewood Suites across the street was full. I had booked the room for Monday and Tuesday night and made sure that I put that we would be arriving late Monday. Unfortunately, late Monday turned into early Tuesday and we didn't get in until around 4am. After burning the midnight oil, we arrived to find out that they had cancelled our reservation because we hadn't shown up before midnight. While I understand the need to run audits and close out any rooms that aren't claimed, at the very least, they could have called and asked if we were indeed on the way. After a brief conversation with the night clerk, we were told that they had one room available for that night only and that they wouldn't be able to honor our original reservation. We said sure and decided to find a new place after we woke up. Fast forward 4 hours and we start heading out to our meeting and to check out. While checking out, the morning clerk asked if we were checking out early and wanted to give up our room. Of course, we said no and were told we could keep our room. All is well, right? Well, not so much. Fast forward a few hours and we are done with our meeting and returned to the hotel. Settling down, our group splits up with my co-worker going over to see a friend at Homewood. A few minutes later, I find myself with water rapidly rising from the toilet (i only used 3 pieces of paper!!!) so I call the front desk to ask maintenance to come up and take care of it. I was told to come down and get a plunger and that he/they wouldn't assist. Now, I'm not asking for them to come up and plunge a nasty toilet, but they could have at least sent someone up with the plunger. After picking up the plunger, I ask "should I just leave it in the room for housekeeping?" to which the clerk replied "no, just bring it back down here". Again, not a major inconvenience, but when you pay for service, you should get service -- even if its just someone dropping off a plunger. As for the room itself, the beds were comfortable, the AC worked well and the unit was clean. My ONLY complaint about the room was the weak water pressure in the shower. The wifi was slow, but at least it was stable -- not fast enough for netflix however...so if you don't want to watch their TV, it may be a good idea to load your device with a few videos before you head this way.More</t>
   </si>
   <si>
-    <t>pkeafer</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r157141807-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1531,9 +1756,6 @@
     <t>March 2013</t>
   </si>
   <si>
-    <t>AggieAbroad</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r155365160-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1552,9 +1774,6 @@
     <t>February 2013</t>
   </si>
   <si>
-    <t>cricket64_13</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r155351118-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1570,9 +1789,6 @@
     <t>We stayed for 5 nights.  Room was clean and spacious.  Housekeeping was good.  Had everything we needed.  We had a great stay until the last night.  2 tour buses full of young adults came in.  They all must have been booked on our floor.  It was a nightmare.  Some was hollering  and beating on doors.  Loud partying all night.  As senior citizens, I was horrified.  Called the front desk and desk clerk said he would check it out, but noise never let up.  With no sleep, we left at 3:30 am to start home  to Georgia. As walking by the front desk, no desk clerk to be found.  Because of this, we'll never go back to this particular hotel.More</t>
   </si>
   <si>
-    <t>Maidenfan84</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r151136938-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1597,7 +1813,121 @@
     <t>I stayed here while in Texas for a couple concerts in June 2010. Staff was extremely friendly. Rooms were clean and new looking. Loved the breakfast. Would definitely stay again! Location was right off the freeway. Plenty of parking. Close to grocery gas and resteraunts.More</t>
   </si>
   <si>
-    <t>timbottu</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r143615583-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>143615583</t>
+  </si>
+  <si>
+    <t>10/24/2012</t>
+  </si>
+  <si>
+    <t>STAY HERE</t>
+  </si>
+  <si>
+    <t>Overall this is just one of the nicest hotels I have stayed in.  The staff reall makes this hotel, Joel, Tim, and Sean were just a few of the people we met, but they really stood out.  Rooms are spacious and clean, hotel is close to the mall and many restaurants.  Breakfast was good.  Overall just a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>tdfor099, General Manager at Comfort Suites Plano, responded to this reviewResponded November 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2012</t>
+  </si>
+  <si>
+    <t>Overall this is just one of the nicest hotels I have stayed in.  The staff reall makes this hotel, Joel, Tim, and Sean were just a few of the people we met, but they really stood out.  Rooms are spacious and clean, hotel is close to the mall and many restaurants.  Breakfast was good.  Overall just a great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r137381015-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>137381015</t>
+  </si>
+  <si>
+    <t>08/16/2012</t>
+  </si>
+  <si>
+    <t>Really nice place to stay</t>
+  </si>
+  <si>
+    <t>The Comfort Suites Plano is really a wonderful place to stay.  Great location, easy access, extremely clean, friendly and helpful staff, a fresh room that looks and smells great, and a super breakfast.  It is obvious they work to keep this place looking great and the staff is customer focused.  We stayed there for a wedding on the floor with others from the wedding party.  It was quiet and peaceful in spite of all the coming and going.  I should probably mention the internet connection was fast and one of the best I have experienced at a motel, the TV was excellent and the fitness center was modern.  Not much more to say.....MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>tdfor099, General Manager at Comfort Suites Plano, responded to this reviewResponded August 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2012</t>
+  </si>
+  <si>
+    <t>The Comfort Suites Plano is really a wonderful place to stay.  Great location, easy access, extremely clean, friendly and helpful staff, a fresh room that looks and smells great, and a super breakfast.  It is obvious they work to keep this place looking great and the staff is customer focused.  We stayed there for a wedding on the floor with others from the wedding party.  It was quiet and peaceful in spite of all the coming and going.  I should probably mention the internet connection was fast and one of the best I have experienced at a motel, the TV was excellent and the fitness center was modern.  Not much more to say.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r137108505-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>137108505</t>
+  </si>
+  <si>
+    <t>08/13/2012</t>
+  </si>
+  <si>
+    <t>Comfort suites Plano is amazing.</t>
+  </si>
+  <si>
+    <t>I needed a place to stay just for a night. I needed a hotel that was clean, safe and well awesome. Comfort suites Plano was just that. I loved the location. It was a reasonable price. I heard no noise and had a good nights rest. This hotel is well maintained and honestly for this being my first time to stay here. It exceeded my expectations.Greg at the front desk was so helpful and friendly. Which is another great thing. I would most definitely recommend this hotel to anyone !MoreShow less</t>
+  </si>
+  <si>
+    <t>I needed a place to stay just for a night. I needed a hotel that was clean, safe and well awesome. Comfort suites Plano was just that. I loved the location. It was a reasonable price. I heard no noise and had a good nights rest. This hotel is well maintained and honestly for this being my first time to stay here. It exceeded my expectations.Greg at the front desk was so helpful and friendly. Which is another great thing. I would most definitely recommend this hotel to anyone !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r136353053-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>136353053</t>
+  </si>
+  <si>
+    <t>08/05/2012</t>
+  </si>
+  <si>
+    <t>Great stay!!</t>
+  </si>
+  <si>
+    <t>I truly enjoyed my stay at this hotel! I was in my way to the Dallas area for a wedding. I first booked a room in Corsicana because my husband and I had worked all day and wanted to stop and get a few hours of sleep before checking into this hotel. I checked into that hotel and there were bugs in my room! I already wrote a review about that hotel and called choice hotels and reported them. So I called and Joel answered the phone and gave me a really good rate!! I totally understand that he couldn't give me the rate I already had for the other two nights. I was totally fine with that because I work for a hotel as well. But he got me a really good price and i love the hotel. We get there which Corsicana is about an hour and a half from this hotel but we got there! We check in and I wanted to fall over! The rooms were amazing!! Plenty of space and the beds were so comfy!!!! We wake up the next morning and breakfast was amazing as well!! All the food was fresh and tasted great. The whole staff was amazing and I would like to personally thank Joel for the wonderful service you gave to us! I will be staying here when I come to the area!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I truly enjoyed my stay at this hotel! I was in my way to the Dallas area for a wedding. I first booked a room in Corsicana because my husband and I had worked all day and wanted to stop and get a few hours of sleep before checking into this hotel. I checked into that hotel and there were bugs in my room! I already wrote a review about that hotel and called choice hotels and reported them. So I called and Joel answered the phone and gave me a really good rate!! I totally understand that he couldn't give me the rate I already had for the other two nights. I was totally fine with that because I work for a hotel as well. But he got me a really good price and i love the hotel. We get there which Corsicana is about an hour and a half from this hotel but we got there! We check in and I wanted to fall over! The rooms were amazing!! Plenty of space and the beds were so comfy!!!! We wake up the next morning and breakfast was amazing as well!! All the food was fresh and tasted great. The whole staff was amazing and I would like to personally thank Joel for the wonderful service you gave to us! I will be staying here when I come to the area!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r136192142-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>136192142</t>
+  </si>
+  <si>
+    <t>08/03/2012</t>
+  </si>
+  <si>
+    <t>AMAZING!!!</t>
+  </si>
+  <si>
+    <t>I spend about 75% of the year staying in hotels and this is by far one of the best I have stayed in. I never post reviews about the hotels I stay in but I have never experienced service like this outside of a full service hotel.  I arrived without a reservation and was greeted by the General Manager, Tim Ford.  It is easy to understand why this hotel is so great because it starts with the manager.  I was only there for two nights but I swear Tim was there from early in the morning till late at night and always in the lobby or front desk area.  I have never seen a General Manager that accessable to his guests.  Not only that but everytime he saw me he remembered my name.  What was even more impressive was that he seemed to remember every guests' name as did the other employees. The check in process at this hotel is awesome, not only did he tell me all about the hotel, but he offered to set up a wake up call and even to print directions for me.  These may seem like simple things but the fact that it was offered before I even asked was fantastic.  The rooms are spacious and very clean, the housekeeping team does a very thorough job here.  There were some wear and tear issues that I noticed throughout the hotel but nothing that would...I spend about 75% of the year staying in hotels and this is by far one of the best I have stayed in. I never post reviews about the hotels I stay in but I have never experienced service like this outside of a full service hotel.  I arrived without a reservation and was greeted by the General Manager, Tim Ford.  It is easy to understand why this hotel is so great because it starts with the manager.  I was only there for two nights but I swear Tim was there from early in the morning till late at night and always in the lobby or front desk area.  I have never seen a General Manager that accessable to his guests.  Not only that but everytime he saw me he remembered my name.  What was even more impressive was that he seemed to remember every guests' name as did the other employees. The check in process at this hotel is awesome, not only did he tell me all about the hotel, but he offered to set up a wake up call and even to print directions for me.  These may seem like simple things but the fact that it was offered before I even asked was fantastic.  The rooms are spacious and very clean, the housekeeping team does a very thorough job here.  There were some wear and tear issues that I noticed throughout the hotel but nothing that would keep me from staying here again. The bed was easily one of the most comfortable I have slept in. In the morning they offer a great breakfast with a large selection of cold and hot food.  I was greeted by Joel who was absolutely the highlight of the breakfast experience.  Like Tim, even though he was working extremely long hours he was always smiling and eager to assist.  Joel takes an amazing amount of pride in his breakfast and went out of his way to make sure that each guest that came down enjoyed their meal. At check out the service level continued and was so impressed that I was asked if there was anything that they could do better. Although i could not think of anything they could improve on I really appreciated their committment to providing great service.  My only disappointment is that I don't have cause to frequent Plano, but when I am in Plano I will only stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>tdfor099, General Manager at Comfort Suites Plano, responded to this reviewResponded August 4, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2012</t>
+  </si>
+  <si>
+    <t>I spend about 75% of the year staying in hotels and this is by far one of the best I have stayed in. I never post reviews about the hotels I stay in but I have never experienced service like this outside of a full service hotel.  I arrived without a reservation and was greeted by the General Manager, Tim Ford.  It is easy to understand why this hotel is so great because it starts with the manager.  I was only there for two nights but I swear Tim was there from early in the morning till late at night and always in the lobby or front desk area.  I have never seen a General Manager that accessable to his guests.  Not only that but everytime he saw me he remembered my name.  What was even more impressive was that he seemed to remember every guests' name as did the other employees. The check in process at this hotel is awesome, not only did he tell me all about the hotel, but he offered to set up a wake up call and even to print directions for me.  These may seem like simple things but the fact that it was offered before I even asked was fantastic.  The rooms are spacious and very clean, the housekeeping team does a very thorough job here.  There were some wear and tear issues that I noticed throughout the hotel but nothing that would...I spend about 75% of the year staying in hotels and this is by far one of the best I have stayed in. I never post reviews about the hotels I stay in but I have never experienced service like this outside of a full service hotel.  I arrived without a reservation and was greeted by the General Manager, Tim Ford.  It is easy to understand why this hotel is so great because it starts with the manager.  I was only there for two nights but I swear Tim was there from early in the morning till late at night and always in the lobby or front desk area.  I have never seen a General Manager that accessable to his guests.  Not only that but everytime he saw me he remembered my name.  What was even more impressive was that he seemed to remember every guests' name as did the other employees. The check in process at this hotel is awesome, not only did he tell me all about the hotel, but he offered to set up a wake up call and even to print directions for me.  These may seem like simple things but the fact that it was offered before I even asked was fantastic.  The rooms are spacious and very clean, the housekeeping team does a very thorough job here.  There were some wear and tear issues that I noticed throughout the hotel but nothing that would keep me from staying here again. The bed was easily one of the most comfortable I have slept in. In the morning they offer a great breakfast with a large selection of cold and hot food.  I was greeted by Joel who was absolutely the highlight of the breakfast experience.  Like Tim, even though he was working extremely long hours he was always smiling and eager to assist.  Joel takes an amazing amount of pride in his breakfast and went out of his way to make sure that each guest that came down enjoyed their meal. At check out the service level continued and was so impressed that I was asked if there was anything that they could do better. Although i could not think of anything they could improve on I really appreciated their committment to providing great service.  My only disappointment is that I don't have cause to frequent Plano, but when I am in Plano I will only stay here.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r135180538-Comfort_Suites_Plano-Plano_Texas.html</t>
@@ -1627,9 +1957,6 @@
     <t>The hotel staff were friendly and check in was pretty quick.  It seemed like every time I went through the lobby the desk person was outside smoking, but I didn't have to wait long for them when I needed something.  There is only one elevator on the property and it was extremely slow.  The room was clean and maintained a comfortable temperature.  The bed / pillow were comfortable.  There were some of the channels on the cable that were not working properly, but I didn't get to spend very much time in the room anyway, so in my case it was not that big of an issue.  I typically get a 2:00 check out when needed due to being a choice privileges member, but the man at the desk said they were understaffed so it would have to be 1:00.  Breakfast was ok.  The area seemed safe.  I would stay here again.More</t>
   </si>
   <si>
-    <t>mfschro</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r126077486-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1645,9 +1972,6 @@
     <t xml:space="preserve">We enjoyed our stay here. The rooms were nice and clean. The only gripe I had was the gap on the floor as you got on the elevator. It would be really easy to trip and fall. I would definitely stay there again. </t>
   </si>
   <si>
-    <t>blshears</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r120791429-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1687,9 +2011,6 @@
     <t>We chose this hotel based on reviews and cost and were not disappointed.  I cannot say enough nice things about the staff.  We were greated everytime we entered the hotel.  Every request was taken care of immediately and courteously.  I needed a 24 hour pharmacy and the desk clerk went above and beyond to help me find one and give me directions.  The entire hotel was very clean and well maintained.  I cannot comment on the breakfast because we slept in and missed it every day we were there.  The room had everything we could have possibly needed.  The only possible downfall would be the size of the swimming pool.  It is the smallest I have ever seen but not a big deal unless it's important to you.  The elevator is slower than most but it worked.  We will stay there again and I would recommend it to a friend.More</t>
   </si>
   <si>
-    <t>KsAdv</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r119509266-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1705,9 +2026,6 @@
     <t>We chose the Plano, Addison, McKinney area for our annal sister's weekend. Plano gave us a central location for the activities. Our stay was pleasant and relatively quiet, despite it being the OU vs.TX football weekend. The rooms were clean, comfortable and roomy. The free breakfast was good and had more seating than most hotels we've stayed. The WiFi connection in our room was very-very slow.</t>
   </si>
   <si>
-    <t>foodluvr21</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r116987890-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1735,9 +2053,6 @@
     <t>We stayed here 4 nights, and the hospitality was incredible.  I became convinced Joel had a twin brother, as I didn't see how anyone could work the desk all night then tend the breakfast bar the next morning, day after day, and always remain incredibly helpful and cheerful!  The (free) breakfast menu varied from day to day, but was always excellent.  The main entrees featured selections such as ham, bacon, biscuits and gravy, cheese omelets, and scrambled eggs, and there were always waffles to be made (regular or cinnamon), fruit, pastries, and yogurt.Our room was large, clean and pretty comfortable.  The A/C was a bit noisy and breezy, but tolerable.  It did a good job of maintaining temperature.  We did find ourselves wishing we had brought our own pillows, as the pillows provided weren't as soft and thin as we prefer.The exercise room was simply equipped and I couldn't get the lone treadmill to work, but the bike (quite nice) and the simple weight machine sufficed for my short workouts.  (I was the only person I ever saw in the room!)Access off the George Bush Turnpike was convenient, and the location felt safe.More</t>
   </si>
   <si>
-    <t>travkisser</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r101578112-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1759,9 +2074,6 @@
     <t>We went with my husband on a business trip and stayed here. We are almost never able to get away as a family, so we have to make his business trips into somewhat of a vacation. The only thing we really wanted in a hotel was an indoor pool so we could all swim together. We spent more on this hotel because the website says it has an indoor pool. However, when we got there we saw that the pool was closed for maintenance and apparently won't be open for a while. The manager was kind enough to refund me the price difference of $40 between this hotel and the other one we were deciding on. The beds are quite firm, but the rooms are extremely clean and pretty roomy. The coke machine took my money but wouldn't dispense a drink and when I informed the clerk, she said she would tell the manager but never offered to reimburse me. Lastly, I wish there were restaraunts within walking distance or at least on the same road. Only fast food is in the immediate area, but BJ's will cater to your room. The breakfast is pretty good (waffles, yogurt, cereal, pastries, eggs, ham, etc.). I would definitely stay here again, but the pool would have to be open for me to pay the room rate.More</t>
   </si>
   <si>
-    <t>MrPaprClip</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r89197770-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1780,9 +2092,6 @@
     <t>October 2010</t>
   </si>
   <si>
-    <t>BethelInsdr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r71068517-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1804,9 +2113,6 @@
     <t>I travel probably 100-125 days a year and I typically stay with other chain hotels - however this place was so nice that I felt compelled to write a review. (I have never done this before  First of all - is this a 5 star hotel (Ritz, etc) no - but no one is suggesting it is a luxury place - but at the price I paid per night this place is perfect.  The hotel is very nicely decorated and maintained.  It is clear that they spent some money in building the facility.  The people were very nice....bedding very comfortable........extremely clean.......and at $$  a night by far the best deal around.  I had stayed clear of some of the Comfort Inn's in the past year as many of them are dated, run down motels, essentially.  This deserves the gold star/medal it has received as it really reflects some true pride in ownership.    I would absolutely stay here again -More</t>
   </si>
   <si>
-    <t>roseoliver</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r55781061-Comfort_Suites_Plano-Plano_Texas.html</t>
   </si>
   <si>
@@ -1823,6 +2129,51 @@
   </si>
   <si>
     <t>November 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r28407182-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>28407182</t>
+  </si>
+  <si>
+    <t>04/20/2009</t>
+  </si>
+  <si>
+    <t>I will return for another stay!!!</t>
+  </si>
+  <si>
+    <t>Although there were a few issues with my stay (i accidently booked a handicapped room, i failed to ask if they needed 3rd party billing authorization), the staff was excellent in meeting my needs and handling everything for me. They even went out of their way to fix my toilet that I broke @ 2am!!! I love the 100% smoke free building!!!</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d1157198-r22456929-Comfort_Suites_Plano-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>22456929</t>
+  </si>
+  <si>
+    <t>12/04/2008</t>
+  </si>
+  <si>
+    <t>Lost Potential</t>
+  </si>
+  <si>
+    <t>This property is a fairly new, attractive hotel at first glance, but it misses the mark on the finer points.  Customer service is lacking at times, but is fairly good.  They just do not react to problems as well as they should.  When informed that the television was not clear and was very hard to watch due to static, I was told that the wind caused the static and there was nothing that could be done.  The internet connection was extremely slow, also.  The promise of a great hotel is there, but the follow-through just is not.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>tdfor099, General Manager at Comfort Suites Plano, responded to this reviewResponded May 6, 2009</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2009</t>
+  </si>
+  <si>
+    <t>This property is a fairly new, attractive hotel at first glance, but it misses the mark on the finer points.  Customer service is lacking at times, but is fairly good.  They just do not react to problems as well as they should.  When informed that the television was not clear and was very hard to watch due to static, I was told that the wind caused the static and there was nothing that could be done.  The internet connection was extremely slow, also.  The promise of a great hotel is there, but the follow-through just is not.More</t>
   </si>
 </sst>
 </file>
@@ -2327,44 +2678,44 @@
       <c r="A2" t="n">
         <v>57513</v>
       </c>
-      <c r="B2" t="n">
-        <v>125743</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -2375,39 +2726,35 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57513</v>
       </c>
-      <c r="B3" t="n">
-        <v>125744</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
         <v>58</v>
@@ -2422,218 +2769,202 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
         <v>64</v>
-      </c>
-      <c r="X3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57513</v>
       </c>
-      <c r="B4" t="n">
-        <v>125745</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>70</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>71</v>
       </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" t="s">
-        <v>74</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57513</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>80</v>
       </c>
-      <c r="J5" t="s">
+      <c r="O5" t="s">
         <v>81</v>
       </c>
-      <c r="K5" t="s">
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
         <v>82</v>
       </c>
-      <c r="L5" t="s">
+      <c r="X5" t="s">
         <v>83</v>
       </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="Y5" t="s">
         <v>84</v>
-      </c>
-      <c r="X5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57513</v>
       </c>
-      <c r="B6" t="n">
-        <v>125746</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>88</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>89</v>
       </c>
-      <c r="J6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" t="s">
-        <v>92</v>
-      </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2645,57 +2976,57 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57513</v>
       </c>
-      <c r="B7" t="n">
-        <v>125747</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
@@ -2706,61 +3037,53 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57513</v>
       </c>
-      <c r="B8" t="n">
-        <v>125748</v>
-      </c>
-      <c r="C8" t="s">
-        <v>107</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>113</v>
-      </c>
-      <c r="O8" t="s">
-        <v>63</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
@@ -2771,60 +3094,56 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57513</v>
       </c>
-      <c r="B9" t="n">
-        <v>125749</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2836,60 +3155,56 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57513</v>
       </c>
-      <c r="B10" t="n">
-        <v>125750</v>
-      </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="O10" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2901,60 +3216,56 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="X10" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57513</v>
       </c>
-      <c r="B11" t="n">
-        <v>125751</v>
-      </c>
-      <c r="C11" t="s">
-        <v>137</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
         <v>133</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2966,133 +3277,119 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="X11" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="Y11" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57513</v>
       </c>
-      <c r="B12" t="n">
-        <v>125752</v>
-      </c>
-      <c r="C12" t="s">
-        <v>146</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
         <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="Y12" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57513</v>
       </c>
-      <c r="B13" t="n">
-        <v>1826</v>
-      </c>
-      <c r="C13" t="s">
-        <v>155</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="n">
         <v>4</v>
       </c>
@@ -3100,131 +3397,129 @@
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="X13" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57513</v>
       </c>
-      <c r="B14" t="n">
-        <v>125753</v>
-      </c>
-      <c r="C14" t="s">
-        <v>165</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="X14" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="Y14" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57513</v>
       </c>
-      <c r="B15" t="n">
-        <v>125754</v>
-      </c>
-      <c r="C15" t="s">
-        <v>175</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="L15" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3236,60 +3531,56 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="X15" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="Y15" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57513</v>
       </c>
-      <c r="B16" t="n">
-        <v>125755</v>
-      </c>
-      <c r="C16" t="s">
-        <v>184</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="K16" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3301,60 +3592,56 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="X16" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="Y16" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57513</v>
       </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>194</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="J17" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="K17" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3366,186 +3653,190 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="X17" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="Y17" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57513</v>
       </c>
-      <c r="B18" t="n">
-        <v>125756</v>
-      </c>
-      <c r="C18" t="s">
-        <v>204</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="J18" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="K18" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="O18" t="s">
-        <v>94</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>194</v>
+      </c>
+      <c r="X18" t="s">
+        <v>195</v>
+      </c>
       <c r="Y18" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57513</v>
       </c>
-      <c r="B19" t="n">
-        <v>125757</v>
-      </c>
-      <c r="C19" t="s">
-        <v>211</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="J19" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="K19" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="O19" t="s">
-        <v>94</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="X19" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="Y19" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57513</v>
       </c>
-      <c r="B20" t="n">
-        <v>34574</v>
-      </c>
-      <c r="C20" t="s">
-        <v>221</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="J20" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="K20" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="O20" t="s">
-        <v>227</v>
+        <v>71</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3557,68 +3848,62 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="X20" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="Y20" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57513</v>
       </c>
-      <c r="B21" t="n">
-        <v>57463</v>
-      </c>
-      <c r="C21" t="s">
-        <v>231</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="J21" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="K21" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="O21" t="s">
-        <v>94</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
@@ -3628,97 +3913,124 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="X21" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="Y21" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57513</v>
       </c>
-      <c r="B22" t="n">
-        <v>125758</v>
-      </c>
-      <c r="C22" t="s">
-        <v>241</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="J22" t="s">
-        <v>244</v>
-      </c>
-      <c r="K22" t="s"/>
-      <c r="L22" t="s"/>
-      <c r="M22" t="s"/>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
+        <v>217</v>
+      </c>
+      <c r="K22" t="s">
+        <v>226</v>
+      </c>
+      <c r="L22" t="s">
+        <v>227</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>228</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>221</v>
+      </c>
+      <c r="X22" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57513</v>
       </c>
-      <c r="B23" t="n">
-        <v>125759</v>
-      </c>
-      <c r="C23" t="s">
-        <v>245</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="J23" t="s">
-        <v>248</v>
-      </c>
-      <c r="K23" t="s"/>
-      <c r="L23" t="s"/>
-      <c r="M23" t="s"/>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
+        <v>232</v>
+      </c>
+      <c r="K23" t="s">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s">
+        <v>234</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>220</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
@@ -3728,121 +4040,114 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
+      <c r="W23" t="s">
+        <v>221</v>
+      </c>
+      <c r="X23" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57513</v>
       </c>
-      <c r="B24" t="n">
-        <v>125760</v>
-      </c>
-      <c r="C24" t="s">
-        <v>249</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="J24" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="K24" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>255</v>
-      </c>
-      <c r="X24" t="s">
-        <v>256</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57513</v>
       </c>
-      <c r="B25" t="n">
-        <v>125761</v>
-      </c>
-      <c r="C25" t="s">
-        <v>258</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="J25" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="K25" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="O25" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3854,338 +4159,324 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="X25" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="Y25" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>57513</v>
       </c>
-      <c r="B26" t="n">
-        <v>125762</v>
-      </c>
-      <c r="C26" t="s">
-        <v>267</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="J26" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="K26" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="O26" t="s">
-        <v>94</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="X26" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="Y26" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57513</v>
       </c>
-      <c r="B27" t="n">
-        <v>125763</v>
-      </c>
-      <c r="C27" t="s">
-        <v>277</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="J27" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="K27" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="L27" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>264</v>
+      </c>
+      <c r="X27" t="s">
+        <v>265</v>
+      </c>
       <c r="Y27" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57513</v>
       </c>
-      <c r="B28" t="n">
-        <v>125764</v>
-      </c>
-      <c r="C28" t="s">
-        <v>284</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="J28" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="K28" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>272</v>
+      </c>
+      <c r="O28" t="s">
+        <v>255</v>
+      </c>
       <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q28" t="s"/>
       <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>273</v>
+      </c>
+      <c r="X28" t="s">
+        <v>274</v>
+      </c>
       <c r="Y28" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>57513</v>
       </c>
-      <c r="B29" t="n">
-        <v>125765</v>
-      </c>
-      <c r="C29" t="s">
-        <v>290</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="J29" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="K29" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>3</v>
-      </c>
-      <c r="S29" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>281</v>
+      </c>
+      <c r="X29" t="s">
+        <v>282</v>
+      </c>
       <c r="Y29" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>57513</v>
       </c>
-      <c r="B30" t="n">
-        <v>125766</v>
-      </c>
-      <c r="C30" t="s">
-        <v>297</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="J30" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="K30" t="s">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="L30" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
+      <c r="N30" t="s">
+        <v>288</v>
+      </c>
+      <c r="O30" t="s">
+        <v>289</v>
+      </c>
       <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
       <c r="S30" t="n">
         <v>4</v>
       </c>
@@ -4196,346 +4487,312 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>290</v>
+      </c>
+      <c r="X30" t="s">
+        <v>291</v>
+      </c>
       <c r="Y30" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>57513</v>
       </c>
-      <c r="B31" t="n">
-        <v>125767</v>
-      </c>
-      <c r="C31" t="s">
-        <v>302</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="J31" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="K31" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="L31" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>296</v>
-      </c>
-      <c r="O31" t="s">
-        <v>63</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="X31" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="Y31" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>57513</v>
       </c>
-      <c r="B32" t="n">
-        <v>125768</v>
-      </c>
-      <c r="C32" t="s">
-        <v>311</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="J32" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="K32" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="L32" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
-      </c>
-      <c r="N32" t="s">
-        <v>296</v>
-      </c>
-      <c r="O32" t="s">
-        <v>94</v>
-      </c>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
       <c r="R32" t="n">
-        <v>3</v>
-      </c>
-      <c r="S32" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
+        <v>306</v>
+      </c>
+      <c r="X32" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y32" t="s">
         <v>308</v>
-      </c>
-      <c r="X32" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>57513</v>
       </c>
-      <c r="B33" t="n">
-        <v>125769</v>
-      </c>
-      <c r="C33" t="s">
-        <v>318</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J33" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="K33" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L33" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
-      </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="s"/>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="X33" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Y33" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>57513</v>
       </c>
-      <c r="B34" t="n">
-        <v>18986</v>
-      </c>
-      <c r="C34" t="s">
-        <v>326</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="J34" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="K34" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>324</v>
-      </c>
-      <c r="O34" t="s">
-        <v>227</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="X34" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="Y34" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>57513</v>
       </c>
-      <c r="B35" t="n">
-        <v>3891</v>
-      </c>
-      <c r="C35" t="s">
-        <v>335</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="J35" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="K35" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>324</v>
+        <v>228</v>
       </c>
       <c r="O35" t="s">
-        <v>94</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -4544,57 +4801,57 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
+        <v>331</v>
+      </c>
+      <c r="X35" t="s">
         <v>332</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>333</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>57513</v>
       </c>
-      <c r="B36" t="n">
-        <v>98241</v>
-      </c>
-      <c r="C36" t="s">
-        <v>342</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="J36" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="K36" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="L36" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>228</v>
+      </c>
+      <c r="O36" t="s">
+        <v>255</v>
+      </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
@@ -4605,140 +4862,132 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="X36" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="Y36" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>57513</v>
       </c>
-      <c r="B37" t="n">
-        <v>125770</v>
-      </c>
-      <c r="C37" t="s">
-        <v>351</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="J37" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K37" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="L37" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
-      </c>
-      <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="X37" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="Y37" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>57513</v>
       </c>
-      <c r="B38" t="n">
-        <v>125771</v>
-      </c>
-      <c r="C38" t="s">
-        <v>361</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="J38" t="s">
+        <v>353</v>
+      </c>
+      <c r="K38" t="s">
         <v>354</v>
       </c>
-      <c r="K38" t="s">
-        <v>364</v>
-      </c>
       <c r="L38" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>366</v>
+        <v>228</v>
       </c>
       <c r="O38" t="s">
-        <v>63</v>
-      </c>
-      <c r="P38" t="s"/>
+        <v>289</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
       <c r="Q38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R38" t="s"/>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -4747,148 +4996,120 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="X38" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="Y38" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>57513</v>
       </c>
-      <c r="B39" t="n">
-        <v>125772</v>
-      </c>
-      <c r="C39" t="s">
-        <v>370</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="J39" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="K39" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="L39" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="O39" t="s">
-        <v>227</v>
-      </c>
-      <c r="P39" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>4</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>377</v>
-      </c>
-      <c r="X39" t="s">
-        <v>378</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>57513</v>
       </c>
-      <c r="B40" t="n">
-        <v>125773</v>
-      </c>
-      <c r="C40" t="s">
-        <v>380</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="J40" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="K40" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="L40" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="O40" t="s">
-        <v>227</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
         <v>4</v>
@@ -4896,73 +5117,61 @@
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>387</v>
-      </c>
-      <c r="X40" t="s">
-        <v>388</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>57513</v>
       </c>
-      <c r="B41" t="n">
-        <v>125774</v>
-      </c>
-      <c r="C41" t="s">
-        <v>390</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="J41" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="K41" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
       </c>
-      <c r="Q41" t="n">
-        <v>2</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
@@ -4971,74 +5180,60 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>387</v>
-      </c>
-      <c r="X41" t="s">
-        <v>388</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>57513</v>
       </c>
-      <c r="B42" t="n">
-        <v>2907</v>
-      </c>
-      <c r="C42" t="s">
-        <v>398</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="J42" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="K42" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="L42" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="O42" t="s">
-        <v>227</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
       <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
         <v>5</v>
@@ -5046,67 +5241,59 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>405</v>
-      </c>
-      <c r="X42" t="s">
-        <v>406</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>57513</v>
       </c>
-      <c r="B43" t="n">
-        <v>125775</v>
-      </c>
-      <c r="C43" t="s">
-        <v>408</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="J43" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="K43" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="L43" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
+      <c r="N43" t="s">
+        <v>385</v>
+      </c>
+      <c r="O43" t="s">
+        <v>71</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="n">
-        <v>4</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
       <c r="S43" t="n">
         <v>5</v>
       </c>
@@ -5117,64 +5304,52 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>414</v>
-      </c>
-      <c r="X43" t="s">
-        <v>415</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>57513</v>
       </c>
-      <c r="B44" t="n">
-        <v>111626</v>
-      </c>
-      <c r="C44" t="s">
-        <v>417</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="J44" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="K44" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="L44" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
-      <c r="N44" t="s">
-        <v>423</v>
-      </c>
-      <c r="O44" t="s">
-        <v>424</v>
-      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
       <c r="P44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="n">
         <v>5</v>
@@ -5192,218 +5367,184 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>425</v>
-      </c>
-      <c r="X44" t="s">
-        <v>426</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>57513</v>
       </c>
-      <c r="B45" t="n">
-        <v>7196</v>
-      </c>
-      <c r="C45" t="s">
-        <v>428</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="J45" t="s">
-        <v>431</v>
-      </c>
-      <c r="K45" t="s"/>
+        <v>393</v>
+      </c>
+      <c r="K45" t="s">
+        <v>394</v>
+      </c>
       <c r="L45" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>423</v>
+        <v>288</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q45" t="s"/>
       <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>433</v>
-      </c>
-      <c r="X45" t="s">
-        <v>434</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>57513</v>
       </c>
-      <c r="B46" t="n">
-        <v>125776</v>
-      </c>
-      <c r="C46" t="s">
-        <v>436</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>437</v>
+        <v>396</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>438</v>
+        <v>397</v>
       </c>
       <c r="J46" t="s">
-        <v>439</v>
+        <v>393</v>
       </c>
       <c r="K46" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="L46" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
-      <c r="N46" t="s">
-        <v>423</v>
-      </c>
-      <c r="O46" t="s">
-        <v>94</v>
-      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
       <c r="P46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>433</v>
-      </c>
-      <c r="X46" t="s">
-        <v>434</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>442</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>57513</v>
       </c>
-      <c r="B47" t="n">
-        <v>125777</v>
-      </c>
-      <c r="C47" t="s">
-        <v>443</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="J47" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="K47" t="s">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="L47" t="s">
-        <v>448</v>
+        <v>404</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>423</v>
+        <v>288</v>
       </c>
       <c r="O47" t="s">
-        <v>227</v>
-      </c>
-      <c r="P47" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
       <c r="R47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5416,215 +5557,197 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>449</v>
+        <v>405</v>
       </c>
       <c r="X47" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="Y47" t="s">
-        <v>451</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>57513</v>
       </c>
-      <c r="B48" t="n">
-        <v>125774</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
         <v>408</v>
       </c>
-      <c r="D48" t="n">
-        <v>47</v>
-      </c>
-      <c r="E48" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" t="s">
-        <v>452</v>
-      </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>453</v>
+        <v>409</v>
       </c>
       <c r="J48" t="s">
-        <v>454</v>
+        <v>410</v>
       </c>
       <c r="K48" t="s">
-        <v>455</v>
+        <v>411</v>
       </c>
       <c r="L48" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
-      </c>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>288</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
       <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>457</v>
+        <v>405</v>
       </c>
       <c r="X48" t="s">
-        <v>458</v>
+        <v>406</v>
       </c>
       <c r="Y48" t="s">
-        <v>459</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>57513</v>
       </c>
-      <c r="B49" t="n">
-        <v>125778</v>
-      </c>
-      <c r="C49" t="s">
-        <v>460</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>461</v>
+        <v>414</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>462</v>
+        <v>415</v>
       </c>
       <c r="J49" t="s">
-        <v>463</v>
+        <v>416</v>
       </c>
       <c r="K49" t="s">
-        <v>464</v>
+        <v>417</v>
       </c>
       <c r="L49" t="s">
-        <v>465</v>
+        <v>418</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="O49" t="s">
-        <v>94</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="n">
         <v>5</v>
       </c>
-      <c r="R49" t="n">
-        <v>4</v>
-      </c>
+      <c r="R49" t="s"/>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>457</v>
+        <v>405</v>
       </c>
       <c r="X49" t="s">
-        <v>458</v>
+        <v>406</v>
       </c>
       <c r="Y49" t="s">
-        <v>467</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>57513</v>
       </c>
-      <c r="B50" t="n">
-        <v>125779</v>
-      </c>
-      <c r="C50" t="s">
-        <v>468</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>469</v>
+        <v>421</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>470</v>
+        <v>422</v>
       </c>
       <c r="J50" t="s">
-        <v>471</v>
+        <v>423</v>
       </c>
       <c r="K50" t="s">
-        <v>472</v>
+        <v>424</v>
       </c>
       <c r="L50" t="s">
-        <v>473</v>
+        <v>425</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
+      <c r="N50" t="s">
+        <v>419</v>
+      </c>
+      <c r="O50" t="s">
+        <v>255</v>
+      </c>
       <c r="P50" t="n">
         <v>5</v>
       </c>
       <c r="Q50" t="n">
         <v>5</v>
       </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
         <v>5</v>
@@ -5633,219 +5756,183 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="X50" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="Y50" t="s">
-        <v>474</v>
+        <v>428</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>57513</v>
       </c>
-      <c r="B51" t="n">
-        <v>125780</v>
-      </c>
-      <c r="C51" t="s">
-        <v>475</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>477</v>
+        <v>430</v>
       </c>
       <c r="J51" t="s">
-        <v>478</v>
+        <v>431</v>
       </c>
       <c r="K51" t="s">
-        <v>479</v>
+        <v>432</v>
       </c>
       <c r="L51" t="s">
-        <v>480</v>
+        <v>433</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>481</v>
+        <v>419</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P51" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>4</v>
-      </c>
-      <c r="R51" t="n">
-        <v>3</v>
-      </c>
-      <c r="S51" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="X51" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="Y51" t="s">
-        <v>482</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>57513</v>
       </c>
-      <c r="B52" t="n">
-        <v>7208</v>
-      </c>
-      <c r="C52" t="s">
-        <v>483</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>484</v>
+        <v>435</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>485</v>
+        <v>436</v>
       </c>
       <c r="J52" t="s">
-        <v>486</v>
+        <v>437</v>
       </c>
       <c r="K52" t="s">
-        <v>487</v>
+        <v>438</v>
       </c>
       <c r="L52" t="s">
-        <v>488</v>
+        <v>439</v>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
-      </c>
-      <c r="N52" t="s">
-        <v>481</v>
-      </c>
-      <c r="O52" t="s">
-        <v>94</v>
-      </c>
-      <c r="P52" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>4</v>
-      </c>
-      <c r="R52" t="n">
-        <v>5</v>
-      </c>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>3</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>489</v>
+        <v>440</v>
       </c>
       <c r="X52" t="s">
-        <v>490</v>
+        <v>441</v>
       </c>
       <c r="Y52" t="s">
-        <v>491</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>57513</v>
       </c>
-      <c r="B53" t="n">
-        <v>125781</v>
-      </c>
-      <c r="C53" t="s">
-        <v>492</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>493</v>
+        <v>443</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>494</v>
+        <v>444</v>
       </c>
       <c r="J53" t="s">
-        <v>495</v>
+        <v>445</v>
       </c>
       <c r="K53" t="s">
-        <v>496</v>
+        <v>446</v>
       </c>
       <c r="L53" t="s">
-        <v>497</v>
+        <v>447</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>498</v>
+        <v>448</v>
       </c>
       <c r="O53" t="s">
-        <v>63</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
       <c r="R53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -5857,67 +5944,63 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>449</v>
+      </c>
+      <c r="X53" t="s">
+        <v>450</v>
+      </c>
       <c r="Y53" t="s">
-        <v>497</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>57513</v>
       </c>
-      <c r="B54" t="n">
-        <v>125782</v>
-      </c>
-      <c r="C54" t="s">
-        <v>499</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>500</v>
+        <v>452</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>501</v>
+        <v>453</v>
       </c>
       <c r="J54" t="s">
-        <v>502</v>
+        <v>445</v>
       </c>
       <c r="K54" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="L54" t="s">
-        <v>504</v>
+        <v>455</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>505</v>
+        <v>456</v>
       </c>
       <c r="O54" t="s">
-        <v>424</v>
-      </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P54" t="s"/>
       <c r="Q54" t="n">
         <v>5</v>
       </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
+      <c r="R54" t="s"/>
       <c r="S54" t="n">
         <v>5</v>
       </c>
@@ -5928,57 +6011,57 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>457</v>
+      </c>
+      <c r="X54" t="s">
+        <v>458</v>
+      </c>
       <c r="Y54" t="s">
-        <v>504</v>
+        <v>459</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>57513</v>
       </c>
-      <c r="B55" t="n">
-        <v>125783</v>
-      </c>
-      <c r="C55" t="s">
-        <v>506</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>507</v>
+        <v>460</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>508</v>
+        <v>461</v>
       </c>
       <c r="J55" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
       <c r="K55" t="s">
-        <v>509</v>
+        <v>463</v>
       </c>
       <c r="L55" t="s">
-        <v>510</v>
+        <v>464</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="O55" t="s">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5990,7 +6073,7 @@
         <v>3</v>
       </c>
       <c r="S55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
@@ -5999,54 +6082,58 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>466</v>
+      </c>
+      <c r="X55" t="s">
+        <v>467</v>
+      </c>
       <c r="Y55" t="s">
-        <v>511</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>57513</v>
       </c>
-      <c r="B56" t="n">
-        <v>125784</v>
-      </c>
-      <c r="C56" t="s">
-        <v>512</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="J56" t="s">
-        <v>515</v>
+        <v>471</v>
       </c>
       <c r="K56" t="s">
-        <v>516</v>
+        <v>472</v>
       </c>
       <c r="L56" t="s">
-        <v>517</v>
+        <v>473</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
-      <c r="N56" t="s"/>
-      <c r="O56" t="s"/>
+      <c r="N56" t="s">
+        <v>474</v>
+      </c>
+      <c r="O56" t="s">
+        <v>255</v>
+      </c>
       <c r="P56" t="n">
         <v>5</v>
       </c>
@@ -6061,140 +6148,136 @@
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>518</v>
+        <v>475</v>
       </c>
       <c r="X56" t="s">
-        <v>519</v>
+        <v>476</v>
       </c>
       <c r="Y56" t="s">
-        <v>520</v>
+        <v>477</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>57513</v>
       </c>
-      <c r="B57" t="n">
-        <v>125785</v>
-      </c>
-      <c r="C57" t="s">
-        <v>521</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>522</v>
+        <v>478</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="J57" t="s">
-        <v>524</v>
+        <v>480</v>
       </c>
       <c r="K57" t="s">
-        <v>525</v>
+        <v>481</v>
       </c>
       <c r="L57" t="s">
-        <v>526</v>
+        <v>482</v>
       </c>
       <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>483</v>
+      </c>
+      <c r="O57" t="s">
+        <v>71</v>
+      </c>
+      <c r="P57" t="n">
         <v>3</v>
       </c>
-      <c r="N57" t="s">
-        <v>527</v>
-      </c>
-      <c r="O57" t="s">
-        <v>94</v>
-      </c>
-      <c r="P57" t="n">
-        <v>4</v>
-      </c>
       <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
         <v>3</v>
-      </c>
-      <c r="R57" t="n">
-        <v>4</v>
-      </c>
-      <c r="S57" t="n">
-        <v>5</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>528</v>
+        <v>475</v>
       </c>
       <c r="X57" t="s">
-        <v>529</v>
+        <v>476</v>
       </c>
       <c r="Y57" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57513</v>
       </c>
-      <c r="B58" t="n">
-        <v>125786</v>
-      </c>
-      <c r="C58" t="s">
-        <v>531</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>532</v>
+        <v>485</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>533</v>
+        <v>486</v>
       </c>
       <c r="J58" t="s">
-        <v>534</v>
+        <v>487</v>
       </c>
       <c r="K58" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="L58" t="s">
-        <v>536</v>
+        <v>489</v>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
-      </c>
-      <c r="N58" t="s"/>
-      <c r="O58" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>490</v>
+      </c>
+      <c r="O58" t="s">
+        <v>255</v>
+      </c>
       <c r="P58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q58" t="n">
         <v>5</v>
@@ -6207,65 +6290,61 @@
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>491</v>
+      </c>
+      <c r="X58" t="s">
+        <v>492</v>
+      </c>
       <c r="Y58" t="s">
-        <v>536</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>57513</v>
       </c>
-      <c r="B59" t="n">
-        <v>125787</v>
-      </c>
-      <c r="C59" t="s">
-        <v>537</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>538</v>
+        <v>494</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>539</v>
+        <v>495</v>
       </c>
       <c r="J59" t="s">
-        <v>540</v>
+        <v>496</v>
       </c>
       <c r="K59" t="s">
-        <v>541</v>
+        <v>497</v>
       </c>
       <c r="L59" t="s">
-        <v>542</v>
+        <v>498</v>
       </c>
       <c r="M59" t="n">
-        <v>4</v>
-      </c>
-      <c r="N59" t="s">
-        <v>543</v>
-      </c>
-      <c r="O59" t="s">
-        <v>424</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
       <c r="P59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q59" t="n">
         <v>4</v>
@@ -6274,69 +6353,69 @@
         <v>4</v>
       </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>499</v>
+      </c>
+      <c r="X59" t="s">
+        <v>500</v>
+      </c>
       <c r="Y59" t="s">
-        <v>542</v>
+        <v>501</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>57513</v>
       </c>
-      <c r="B60" t="n">
-        <v>125757</v>
-      </c>
-      <c r="C60" t="s">
-        <v>241</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>544</v>
+        <v>502</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>545</v>
+        <v>503</v>
       </c>
       <c r="J60" t="s">
-        <v>546</v>
+        <v>504</v>
       </c>
       <c r="K60" t="s">
-        <v>547</v>
+        <v>505</v>
       </c>
       <c r="L60" t="s">
-        <v>548</v>
+        <v>506</v>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>549</v>
+        <v>507</v>
       </c>
       <c r="O60" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="P60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q60" t="n">
         <v>5</v>
@@ -6354,60 +6433,58 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>508</v>
+      </c>
+      <c r="X60" t="s">
+        <v>509</v>
+      </c>
       <c r="Y60" t="s">
-        <v>550</v>
+        <v>510</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>57513</v>
       </c>
-      <c r="B61" t="n">
-        <v>125788</v>
-      </c>
-      <c r="C61" t="s">
-        <v>551</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>552</v>
+        <v>511</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>553</v>
+        <v>512</v>
       </c>
       <c r="J61" t="s">
-        <v>554</v>
-      </c>
-      <c r="K61" t="s">
-        <v>555</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="K61" t="s"/>
       <c r="L61" t="s">
-        <v>556</v>
+        <v>514</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>549</v>
+        <v>507</v>
       </c>
       <c r="O61" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="P61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q61" t="n">
         <v>4</v>
@@ -6416,72 +6493,76 @@
         <v>5</v>
       </c>
       <c r="S61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>515</v>
+      </c>
+      <c r="X61" t="s">
+        <v>516</v>
+      </c>
       <c r="Y61" t="s">
-        <v>556</v>
+        <v>517</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>57513</v>
       </c>
-      <c r="B62" t="n">
-        <v>125789</v>
-      </c>
-      <c r="C62" t="s">
-        <v>557</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>558</v>
+        <v>518</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>559</v>
+        <v>519</v>
       </c>
       <c r="J62" t="s">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="K62" t="s">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="L62" t="s">
-        <v>562</v>
+        <v>522</v>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>563</v>
+        <v>507</v>
       </c>
       <c r="O62" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
       </c>
-      <c r="Q62" t="s"/>
-      <c r="R62" t="s"/>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
       <c r="S62" t="n">
         <v>5</v>
       </c>
@@ -6493,132 +6574,124 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>564</v>
+        <v>515</v>
       </c>
       <c r="X62" t="s">
-        <v>565</v>
+        <v>516</v>
       </c>
       <c r="Y62" t="s">
-        <v>566</v>
+        <v>523</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>57513</v>
       </c>
-      <c r="B63" t="n">
-        <v>125790</v>
-      </c>
-      <c r="C63" t="s">
-        <v>567</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>568</v>
+        <v>524</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>569</v>
+        <v>525</v>
       </c>
       <c r="J63" t="s">
-        <v>570</v>
+        <v>526</v>
       </c>
       <c r="K63" t="s">
-        <v>571</v>
+        <v>527</v>
       </c>
       <c r="L63" t="s">
-        <v>572</v>
+        <v>528</v>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>573</v>
+        <v>507</v>
       </c>
       <c r="O63" t="s">
-        <v>94</v>
+        <v>255</v>
       </c>
       <c r="P63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q63" t="n">
         <v>5</v>
       </c>
       <c r="R63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S63" t="n">
         <v>5</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>529</v>
+      </c>
+      <c r="X63" t="s">
+        <v>530</v>
+      </c>
       <c r="Y63" t="s">
-        <v>574</v>
+        <v>531</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>57513</v>
       </c>
-      <c r="B64" t="n">
-        <v>125791</v>
-      </c>
-      <c r="C64" t="s">
-        <v>575</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>576</v>
+        <v>532</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>577</v>
+        <v>533</v>
       </c>
       <c r="J64" t="s">
-        <v>578</v>
+        <v>534</v>
       </c>
       <c r="K64" t="s">
-        <v>579</v>
+        <v>535</v>
       </c>
       <c r="L64" t="s">
-        <v>580</v>
+        <v>536</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
-      <c r="N64" t="s">
-        <v>581</v>
-      </c>
-      <c r="O64" t="s">
-        <v>94</v>
-      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
       <c r="P64" t="n">
         <v>5</v>
       </c>
@@ -6629,66 +6702,66 @@
         <v>5</v>
       </c>
       <c r="S64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
+      <c r="W64" t="s">
+        <v>537</v>
+      </c>
+      <c r="X64" t="s">
+        <v>538</v>
+      </c>
       <c r="Y64" t="s">
-        <v>580</v>
+        <v>539</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>57513</v>
       </c>
-      <c r="B65" t="n">
-        <v>125792</v>
-      </c>
-      <c r="C65" t="s">
-        <v>582</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>583</v>
+        <v>540</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>584</v>
+        <v>541</v>
       </c>
       <c r="J65" t="s">
-        <v>585</v>
+        <v>542</v>
       </c>
       <c r="K65" t="s">
-        <v>586</v>
+        <v>543</v>
       </c>
       <c r="L65" t="s">
-        <v>587</v>
+        <v>544</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>588</v>
+        <v>545</v>
       </c>
       <c r="O65" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6697,70 +6770,66 @@
         <v>5</v>
       </c>
       <c r="R65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
+      <c r="W65" t="s">
+        <v>537</v>
+      </c>
+      <c r="X65" t="s">
+        <v>538</v>
+      </c>
       <c r="Y65" t="s">
-        <v>589</v>
+        <v>546</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>57513</v>
       </c>
-      <c r="B66" t="n">
-        <v>125793</v>
-      </c>
-      <c r="C66" t="s">
-        <v>590</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>591</v>
+        <v>547</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="J66" t="s">
-        <v>593</v>
+        <v>549</v>
       </c>
       <c r="K66" t="s">
-        <v>594</v>
+        <v>550</v>
       </c>
       <c r="L66" t="s">
-        <v>595</v>
+        <v>551</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
-      <c r="N66" t="s">
-        <v>596</v>
-      </c>
-      <c r="O66" t="s">
-        <v>63</v>
-      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
       <c r="P66" t="n">
         <v>5</v>
       </c>
@@ -6768,7 +6837,7 @@
         <v>5</v>
       </c>
       <c r="R66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S66" t="n">
         <v>5</v>
@@ -6780,10 +6849,1579 @@
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
+      <c r="W66" t="s">
+        <v>537</v>
+      </c>
+      <c r="X66" t="s">
+        <v>538</v>
+      </c>
       <c r="Y66" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>553</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>554</v>
+      </c>
+      <c r="J67" t="s">
+        <v>555</v>
+      </c>
+      <c r="K67" t="s">
+        <v>556</v>
+      </c>
+      <c r="L67" t="s">
+        <v>557</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>558</v>
+      </c>
+      <c r="O67" t="s">
+        <v>71</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>537</v>
+      </c>
+      <c r="X67" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>560</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>561</v>
+      </c>
+      <c r="J68" t="s">
+        <v>562</v>
+      </c>
+      <c r="K68" t="s">
+        <v>563</v>
+      </c>
+      <c r="L68" t="s">
+        <v>564</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>558</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>565</v>
+      </c>
+      <c r="X68" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>568</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>569</v>
+      </c>
+      <c r="J69" t="s">
+        <v>570</v>
+      </c>
+      <c r="K69" t="s">
+        <v>571</v>
+      </c>
+      <c r="L69" t="s">
+        <v>572</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>573</v>
+      </c>
+      <c r="O69" t="s">
+        <v>71</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>574</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>575</v>
+      </c>
+      <c r="J70" t="s">
+        <v>576</v>
+      </c>
+      <c r="K70" t="s">
+        <v>577</v>
+      </c>
+      <c r="L70" t="s">
+        <v>578</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>579</v>
+      </c>
+      <c r="O70" t="s">
+        <v>289</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>580</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>581</v>
+      </c>
+      <c r="J71" t="s">
+        <v>576</v>
+      </c>
+      <c r="K71" t="s">
+        <v>582</v>
+      </c>
+      <c r="L71" t="s">
+        <v>583</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>573</v>
+      </c>
+      <c r="O71" t="s">
+        <v>71</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>585</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>586</v>
+      </c>
+      <c r="J72" t="s">
+        <v>587</v>
+      </c>
+      <c r="K72" t="s">
+        <v>588</v>
+      </c>
+      <c r="L72" t="s">
+        <v>589</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>590</v>
+      </c>
+      <c r="X72" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>593</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>594</v>
+      </c>
+      <c r="J73" t="s">
         <v>595</v>
+      </c>
+      <c r="K73" t="s">
+        <v>596</v>
+      </c>
+      <c r="L73" t="s">
+        <v>597</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>598</v>
+      </c>
+      <c r="O73" t="s">
+        <v>71</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>599</v>
+      </c>
+      <c r="X73" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>602</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>603</v>
+      </c>
+      <c r="J74" t="s">
+        <v>604</v>
+      </c>
+      <c r="K74" t="s">
+        <v>605</v>
+      </c>
+      <c r="L74" t="s">
+        <v>606</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>607</v>
+      </c>
+      <c r="O74" t="s">
+        <v>71</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>608</v>
+      </c>
+      <c r="X74" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>611</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>612</v>
+      </c>
+      <c r="J75" t="s">
+        <v>613</v>
+      </c>
+      <c r="K75" t="s">
+        <v>614</v>
+      </c>
+      <c r="L75" t="s">
+        <v>615</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>608</v>
+      </c>
+      <c r="X75" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>617</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>618</v>
+      </c>
+      <c r="J76" t="s">
+        <v>619</v>
+      </c>
+      <c r="K76" t="s">
+        <v>620</v>
+      </c>
+      <c r="L76" t="s">
+        <v>621</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>608</v>
+      </c>
+      <c r="X76" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>623</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>624</v>
+      </c>
+      <c r="J77" t="s">
+        <v>625</v>
+      </c>
+      <c r="K77" t="s">
+        <v>626</v>
+      </c>
+      <c r="L77" t="s">
+        <v>627</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>628</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>629</v>
+      </c>
+      <c r="X77" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>632</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>633</v>
+      </c>
+      <c r="J78" t="s">
+        <v>634</v>
+      </c>
+      <c r="K78" t="s">
+        <v>635</v>
+      </c>
+      <c r="L78" t="s">
+        <v>636</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>637</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>638</v>
+      </c>
+      <c r="X78" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>641</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>642</v>
+      </c>
+      <c r="J79" t="s">
+        <v>643</v>
+      </c>
+      <c r="K79" t="s">
+        <v>644</v>
+      </c>
+      <c r="L79" t="s">
+        <v>645</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>646</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>647</v>
+      </c>
+      <c r="J80" t="s">
+        <v>648</v>
+      </c>
+      <c r="K80" t="s">
+        <v>649</v>
+      </c>
+      <c r="L80" t="s">
+        <v>650</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>651</v>
+      </c>
+      <c r="O80" t="s">
+        <v>289</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>652</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>653</v>
+      </c>
+      <c r="J81" t="s">
+        <v>654</v>
+      </c>
+      <c r="K81" t="s">
+        <v>655</v>
+      </c>
+      <c r="L81" t="s">
+        <v>656</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>657</v>
+      </c>
+      <c r="O81" t="s">
+        <v>255</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>659</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>660</v>
+      </c>
+      <c r="J82" t="s">
+        <v>661</v>
+      </c>
+      <c r="K82" t="s">
+        <v>662</v>
+      </c>
+      <c r="L82" t="s">
+        <v>663</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>657</v>
+      </c>
+      <c r="O82" t="s">
+        <v>71</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>664</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>665</v>
+      </c>
+      <c r="J83" t="s">
+        <v>666</v>
+      </c>
+      <c r="K83" t="s">
+        <v>667</v>
+      </c>
+      <c r="L83" t="s">
+        <v>668</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>669</v>
+      </c>
+      <c r="O83" t="s">
+        <v>71</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>670</v>
+      </c>
+      <c r="X83" t="s">
+        <v>671</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>673</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>674</v>
+      </c>
+      <c r="J84" t="s">
+        <v>675</v>
+      </c>
+      <c r="K84" t="s">
+        <v>676</v>
+      </c>
+      <c r="L84" t="s">
+        <v>677</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>678</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>680</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>681</v>
+      </c>
+      <c r="J85" t="s">
+        <v>682</v>
+      </c>
+      <c r="K85" t="s">
+        <v>683</v>
+      </c>
+      <c r="L85" t="s">
+        <v>684</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>685</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>686</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>687</v>
+      </c>
+      <c r="J86" t="s">
+        <v>688</v>
+      </c>
+      <c r="K86" t="s">
+        <v>689</v>
+      </c>
+      <c r="L86" t="s">
+        <v>690</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>691</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>693</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>694</v>
+      </c>
+      <c r="J87" t="s">
+        <v>695</v>
+      </c>
+      <c r="K87" t="s">
+        <v>696</v>
+      </c>
+      <c r="L87" t="s">
+        <v>697</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>698</v>
+      </c>
+      <c r="O87" t="s">
+        <v>71</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>699</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>700</v>
+      </c>
+      <c r="J88" t="s">
+        <v>701</v>
+      </c>
+      <c r="K88" t="s">
+        <v>702</v>
+      </c>
+      <c r="L88" t="s">
+        <v>703</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>704</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>57513</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>705</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>706</v>
+      </c>
+      <c r="J89" t="s">
+        <v>707</v>
+      </c>
+      <c r="K89" t="s">
+        <v>708</v>
+      </c>
+      <c r="L89" t="s">
+        <v>709</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s">
+        <v>710</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>711</v>
+      </c>
+      <c r="X89" t="s">
+        <v>712</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>713</v>
       </c>
     </row>
   </sheetData>
